--- a/SCE_stdev_lt.xlsx
+++ b/SCE_stdev_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>4.5301918983459473</v>
       </c>
       <c r="C7" s="2">
-        <v>4.4005756378173828</v>
+        <v>4.4011898040771484</v>
       </c>
       <c r="D7" s="2">
         <v>5.3624835014343262</v>
       </c>
       <c r="E7" s="2">
-        <v>5.2274336814880371</v>
+        <v>5.2286005020141602</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>5.0946636199951172</v>
       </c>
       <c r="C8" s="2">
-        <v>4.9086380004882812</v>
+        <v>4.9107074737548828</v>
       </c>
       <c r="D8" s="2">
         <v>5.4869284629821777</v>
       </c>
       <c r="E8" s="2">
-        <v>5.4216647148132324</v>
+        <v>5.4227848052978516</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>5.6854672431945801</v>
       </c>
       <c r="C9" s="2">
-        <v>5.6041336059570312</v>
+        <v>5.6041569709777832</v>
       </c>
       <c r="D9" s="2">
         <v>5.4606180191040039</v>
       </c>
       <c r="E9" s="2">
-        <v>5.3949365615844727</v>
+        <v>5.3960938453674317</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>5.9431967735290527</v>
       </c>
       <c r="C10" s="2">
-        <v>5.9153919219970703</v>
+        <v>5.9163098335266113</v>
       </c>
       <c r="D10" s="2">
         <v>5.5678534507751465</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5130348205566406</v>
+        <v>5.5141654014587402</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>5.5588984489440918</v>
       </c>
       <c r="C11" s="2">
-        <v>5.3084287643432617</v>
+        <v>5.3106379508972168</v>
       </c>
       <c r="D11" s="2">
         <v>5.6390500068664551</v>
       </c>
       <c r="E11" s="2">
-        <v>5.5710973739624023</v>
+        <v>5.5720334053039551</v>
       </c>
     </row>
     <row r="12">
@@ -233,16 +233,16 @@
         <v>41579</v>
       </c>
       <c r="B12" s="2">
-        <v>6.1091527938842773</v>
+        <v>6.1091527938842774</v>
       </c>
       <c r="C12" s="2">
-        <v>6.3928208351135254</v>
+        <v>6.3937077522277832</v>
       </c>
       <c r="D12" s="2">
         <v>5.8802719116210938</v>
       </c>
       <c r="E12" s="2">
-        <v>5.8246231079101562</v>
+        <v>5.8250184059143066</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>5.3027558326721191</v>
       </c>
       <c r="C13" s="2">
-        <v>5.2345671653747559</v>
+        <v>5.2359457015991211</v>
       </c>
       <c r="D13" s="2">
         <v>6.1278777122497559</v>
       </c>
       <c r="E13" s="2">
-        <v>6.1053357124328613</v>
+        <v>6.1054472923278809</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>6.3185024261474609</v>
       </c>
       <c r="C14" s="2">
-        <v>6.3397235870361328</v>
+        <v>6.3406667709350586</v>
       </c>
       <c r="D14" s="2">
         <v>6.1767430305480957</v>
       </c>
       <c r="E14" s="2">
-        <v>6.1617879867553711</v>
+        <v>6.1618351936340332</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>6.2086200714111328</v>
       </c>
       <c r="C15" s="2">
-        <v>6.0355954170227051</v>
+        <v>6.0349769592285156</v>
       </c>
       <c r="D15" s="2">
         <v>6.1769070625305176</v>
       </c>
       <c r="E15" s="2">
-        <v>6.1676754951477051</v>
+        <v>6.1676859855651855</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>6.7011919021606445</v>
       </c>
       <c r="C16" s="2">
-        <v>6.682309627532959</v>
+        <v>6.6780567169189453</v>
       </c>
       <c r="D16" s="2">
         <v>6.1405487060546875</v>
       </c>
       <c r="E16" s="2">
-        <v>6.1641006469726562</v>
+        <v>6.1638784408569336</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>7.323115348815918</v>
       </c>
       <c r="C17" s="2">
-        <v>7.4350504875183105</v>
+        <v>7.4345674514770508</v>
       </c>
       <c r="D17" s="2">
         <v>6.0390791893005371</v>
       </c>
       <c r="E17" s="2">
-        <v>6.0171570777893066</v>
+        <v>6.0168251991271973</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>6.1252527236938477</v>
       </c>
       <c r="C18" s="2">
-        <v>6.1122021675109863</v>
+        <v>6.1116461753845215</v>
       </c>
       <c r="D18" s="2">
         <v>5.976264476776123</v>
       </c>
       <c r="E18" s="2">
-        <v>5.9145693778991699</v>
+        <v>5.9141831398010254</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>5.944674015045166</v>
       </c>
       <c r="C19" s="2">
-        <v>5.9683828353881836</v>
+        <v>5.9689674377441406</v>
       </c>
       <c r="D19" s="2">
         <v>5.8484854698181152</v>
       </c>
       <c r="E19" s="2">
-        <v>5.7810702323913574</v>
+        <v>5.7806434631347656</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>5.2316741943359375</v>
       </c>
       <c r="C20" s="2">
-        <v>5.2762527465820312</v>
+        <v>5.2763710021972656</v>
       </c>
       <c r="D20" s="2">
         <v>5.9609379768371582</v>
       </c>
       <c r="E20" s="2">
-        <v>5.9061994552612305</v>
+        <v>5.9059324264526367</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>5.1959242820739746</v>
       </c>
       <c r="C21" s="2">
-        <v>5.0703282356262207</v>
+        <v>5.0702271461486816</v>
       </c>
       <c r="D21" s="2">
         <v>5.8619036674499512</v>
       </c>
       <c r="E21" s="2">
-        <v>5.801936149597168</v>
+        <v>5.8023934364318848</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>4.7374272346496582</v>
       </c>
       <c r="C22" s="2">
-        <v>4.3112783432006836</v>
+        <v>4.3121705055236817</v>
       </c>
       <c r="D22" s="2">
         <v>5.6456847190856934</v>
       </c>
       <c r="E22" s="2">
-        <v>5.5459651947021484</v>
+        <v>5.5461030006408691</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>5.1684908866882324</v>
       </c>
       <c r="C23" s="2">
-        <v>5.1382322311401367</v>
+        <v>5.1388063430786133</v>
       </c>
       <c r="D23" s="2">
-        <v>5.7407140731811523</v>
+        <v>5.7407140731811524</v>
       </c>
       <c r="E23" s="2">
-        <v>5.6424851417541504</v>
+        <v>5.6430239677429199</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>7.2206926345825195</v>
       </c>
       <c r="C24" s="2">
-        <v>7.1617579460144043</v>
+        <v>7.1625785827636719</v>
       </c>
       <c r="D24" s="2">
         <v>5.7031898498535156</v>
       </c>
       <c r="E24" s="2">
-        <v>5.5902915000915527</v>
+        <v>5.5903515815734863</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>5.8098797798156738</v>
       </c>
       <c r="C25" s="2">
-        <v>5.7439384460449219</v>
+        <v>5.7462062835693359</v>
       </c>
       <c r="D25" s="2">
         <v>5.8179006576538086</v>
       </c>
       <c r="E25" s="2">
-        <v>5.7331304550170898</v>
+        <v>5.7333168983459473</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>5.3771452903747559</v>
       </c>
       <c r="C26" s="2">
-        <v>5.131312370300293</v>
+        <v>5.1279540061950684</v>
       </c>
       <c r="D26" s="2">
         <v>5.9916996955871582</v>
       </c>
       <c r="E26" s="2">
-        <v>5.9179115295410156</v>
+        <v>5.9182543754577637</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>6.9805169105529785</v>
       </c>
       <c r="C27" s="2">
-        <v>6.9808812141418457</v>
+        <v>6.9839363098144531</v>
       </c>
       <c r="D27" s="2">
         <v>6.1422090530395508</v>
       </c>
       <c r="E27" s="2">
-        <v>6.1177616119384766</v>
+        <v>6.1183595657348633</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>5.606959342956543</v>
       </c>
       <c r="C28" s="2">
-        <v>5.4986400604248047</v>
+        <v>5.4949140548706055</v>
       </c>
       <c r="D28" s="2">
         <v>6.2517604827880859</v>
       </c>
       <c r="E28" s="2">
-        <v>6.2248020172119141</v>
+        <v>6.2253460884094238</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>6.2640681266784668</v>
       </c>
       <c r="C29" s="2">
-        <v>6.5618062019348145</v>
+        <v>6.5630598068237305</v>
       </c>
       <c r="D29" s="2">
         <v>6.1346220970153809</v>
       </c>
       <c r="E29" s="2">
-        <v>6.1050801277160645</v>
+        <v>6.1055569648742676</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>6.7601170539855957</v>
       </c>
       <c r="C30" s="2">
-        <v>6.7333574295043945</v>
+        <v>6.7346644401550293</v>
       </c>
       <c r="D30" s="2">
         <v>6.103238582611084</v>
       </c>
       <c r="E30" s="2">
-        <v>6.0711793899536133</v>
+        <v>6.0712180137634277</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>6.0920100212097168</v>
       </c>
       <c r="C31" s="2">
-        <v>6.1099281311035156</v>
+        <v>6.1131143569946289</v>
       </c>
       <c r="D31" s="2">
         <v>6.1025605201721191</v>
       </c>
       <c r="E31" s="2">
-        <v>6.0976696014404297</v>
+        <v>6.0983929634094238</v>
       </c>
     </row>
     <row r="32">
@@ -573,16 +573,16 @@
         <v>42186</v>
       </c>
       <c r="B32" s="2">
-        <v>6.1544570922851562</v>
+        <v>6.1544570922851563</v>
       </c>
       <c r="C32" s="2">
-        <v>6.1015949249267578</v>
+        <v>6.1016874313354492</v>
       </c>
       <c r="D32" s="2">
         <v>5.9501290321350098</v>
       </c>
       <c r="E32" s="2">
-        <v>5.9485836029052734</v>
+        <v>5.9490385055541992</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>6.1664457321166992</v>
       </c>
       <c r="C33" s="2">
-        <v>6.084263801574707</v>
+        <v>6.0844769477844238</v>
       </c>
       <c r="D33" s="2">
-        <v>5.8441224098205566</v>
+        <v>5.8441224098205567</v>
       </c>
       <c r="E33" s="2">
-        <v>5.8475275039672852</v>
+        <v>5.8484172821044922</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>5.5274257659912109</v>
       </c>
       <c r="C34" s="2">
-        <v>5.4388308525085449</v>
+        <v>5.4371566772460938</v>
       </c>
       <c r="D34" s="2">
         <v>5.7594237327575684</v>
       </c>
       <c r="E34" s="2">
-        <v>5.7387328147888184</v>
+        <v>5.7391409873962402</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>5.3710432052612305</v>
       </c>
       <c r="C35" s="2">
-        <v>5.3697257041931152</v>
+        <v>5.372525691986084</v>
       </c>
       <c r="D35" s="2">
         <v>5.549527645111084</v>
       </c>
       <c r="E35" s="2">
-        <v>5.509737491607666</v>
+        <v>5.5099020004272461</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>5.6086359024047852</v>
       </c>
       <c r="C36" s="2">
-        <v>5.6391072273254395</v>
+        <v>5.6397485733032227</v>
       </c>
       <c r="D36" s="2">
         <v>5.6549420356750488</v>
       </c>
       <c r="E36" s="2">
-        <v>5.5759439468383789</v>
+        <v>5.5757656097412109</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>4.652897834777832</v>
       </c>
       <c r="C37" s="2">
-        <v>4.5891342163085938</v>
+        <v>4.5893211364746094</v>
       </c>
       <c r="D37" s="2">
         <v>5.640777587890625</v>
       </c>
       <c r="E37" s="2">
-        <v>5.5452423095703125</v>
+        <v>5.545020580291748</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>5.5017795562744141</v>
       </c>
       <c r="C38" s="2">
-        <v>5.5826525688171387</v>
+        <v>5.5795750617980957</v>
       </c>
       <c r="D38" s="2">
         <v>5.5401191711425781</v>
       </c>
       <c r="E38" s="2">
-        <v>5.4360866546630859</v>
+        <v>5.4357185363769531</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>4.8710522651672363</v>
       </c>
       <c r="C39" s="2">
-        <v>4.6723995208740234</v>
+        <v>4.671511173248291</v>
       </c>
       <c r="D39" s="2">
         <v>5.5602965354919434</v>
       </c>
       <c r="E39" s="2">
-        <v>5.4523649215698242</v>
+        <v>5.4524421691894531</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>7.0407414436340332</v>
       </c>
       <c r="C40" s="2">
-        <v>6.705784797668457</v>
+        <v>6.7058863639831543</v>
       </c>
       <c r="D40" s="2">
         <v>5.5558099746704102</v>
       </c>
       <c r="E40" s="2">
-        <v>5.4313549995422363</v>
+        <v>5.4311437606811524</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>6.0269770622253418</v>
       </c>
       <c r="C41" s="2">
-        <v>5.8252801895141602</v>
+        <v>5.8249835968017578</v>
       </c>
       <c r="D41" s="2">
         <v>5.6252870559692383</v>
       </c>
       <c r="E41" s="2">
-        <v>5.4852571487426758</v>
+        <v>5.485079288482666</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>5.260521411895752</v>
       </c>
       <c r="C42" s="2">
-        <v>5.101865291595459</v>
+        <v>5.1007571220397949</v>
       </c>
       <c r="D42" s="2">
         <v>5.6961116790771484</v>
       </c>
       <c r="E42" s="2">
-        <v>5.5434474945068359</v>
+        <v>5.5434131622314453</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>5.7090187072753906</v>
       </c>
       <c r="C43" s="2">
-        <v>5.5853366851806641</v>
+        <v>5.5876693725585938</v>
       </c>
       <c r="D43" s="2">
         <v>5.7380242347717285</v>
       </c>
       <c r="E43" s="2">
-        <v>5.5719265937805176</v>
+        <v>5.5721640586853027</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>5.3306670188903809</v>
       </c>
       <c r="C44" s="2">
-        <v>5.1806349754333496</v>
+        <v>5.180840015411377</v>
       </c>
       <c r="D44" s="2">
         <v>5.889378547668457</v>
       </c>
       <c r="E44" s="2">
-        <v>5.7415690422058105</v>
+        <v>5.7418174743652344</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>6.2339272499084473</v>
       </c>
       <c r="C45" s="2">
-        <v>6.1242246627807617</v>
+        <v>6.1251702308654785</v>
       </c>
       <c r="D45" s="2">
         <v>5.8384127616882324</v>
       </c>
       <c r="E45" s="2">
-        <v>5.7361068725585938</v>
+        <v>5.736386775970459</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>5.290318489074707</v>
       </c>
       <c r="C46" s="2">
-        <v>5.1128482818603516</v>
+        <v>5.1143264770507813</v>
       </c>
       <c r="D46" s="2">
         <v>5.8637819290161133</v>
       </c>
       <c r="E46" s="2">
-        <v>5.7829146385192871</v>
+        <v>5.7833900451660156</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>5.8789925575256348</v>
       </c>
       <c r="C47" s="2">
-        <v>5.8389663696289062</v>
+        <v>5.8383331298828125</v>
       </c>
       <c r="D47" s="2">
         <v>6.0151686668395996</v>
       </c>
       <c r="E47" s="2">
-        <v>5.961428165435791</v>
+        <v>5.9619584083557129</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>6.2332439422607422</v>
       </c>
       <c r="C48" s="2">
-        <v>6.199181079864502</v>
+        <v>6.1983928680419922</v>
       </c>
       <c r="D48" s="2">
         <v>6.1029829978942871</v>
       </c>
       <c r="E48" s="2">
-        <v>6.0698480606079102</v>
+        <v>6.0703234672546387</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>6.5820488929748535</v>
       </c>
       <c r="C49" s="2">
-        <v>6.6566243171691895</v>
+        <v>6.6570086479187012</v>
       </c>
       <c r="D49" s="2">
         <v>6.2419490814208984</v>
       </c>
       <c r="E49" s="2">
-        <v>6.2273874282836914</v>
+        <v>6.2280430793762207</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>6.2552971839904785</v>
       </c>
       <c r="C50" s="2">
-        <v>6.246549129486084</v>
+        <v>6.2480134963989258</v>
       </c>
       <c r="D50" s="2">
         <v>6.1711173057556152</v>
       </c>
       <c r="E50" s="2">
-        <v>6.1543736457824707</v>
+        <v>6.1550955772399902</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>6.6230058670043945</v>
       </c>
       <c r="C51" s="2">
-        <v>6.708488941192627</v>
+        <v>6.7078700065612793</v>
       </c>
       <c r="D51" s="2">
         <v>6.2361111640930176</v>
       </c>
       <c r="E51" s="2">
-        <v>6.2457761764526367</v>
+        <v>6.246243953704834</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>6.4993462562561035</v>
       </c>
       <c r="C52" s="2">
-        <v>6.5611128807067871</v>
+        <v>6.562957763671875</v>
       </c>
       <c r="D52" s="2">
         <v>6.2097396850585938</v>
       </c>
       <c r="E52" s="2">
-        <v>6.2189846038818359</v>
+        <v>6.2196035385131836</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>6.5813608169555664</v>
       </c>
       <c r="C53" s="2">
-        <v>6.5984902381896973</v>
+        <v>6.6003131866455078</v>
       </c>
       <c r="D53" s="2">
         <v>6.1219987869262695</v>
       </c>
       <c r="E53" s="2">
-        <v>6.1283044815063477</v>
+        <v>6.1291346549987793</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>5.5964436531066895</v>
       </c>
       <c r="C54" s="2">
-        <v>5.4671010971069336</v>
+        <v>5.4686441421508789</v>
       </c>
       <c r="D54" s="2">
         <v>6.0554351806640625</v>
       </c>
       <c r="E54" s="2">
-        <v>6.0596752166748047</v>
+        <v>6.060575008392334</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>5.8752603530883789</v>
       </c>
       <c r="C55" s="2">
-        <v>5.9354710578918457</v>
+        <v>5.9346637725830078</v>
       </c>
       <c r="D55" s="2">
         <v>6.0392885208129883</v>
       </c>
       <c r="E55" s="2">
-        <v>6.0352463722229004</v>
+        <v>6.0362362861633301</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>5.6416521072387695</v>
       </c>
       <c r="C56" s="2">
-        <v>5.5978446006774902</v>
+        <v>5.5985684394836426</v>
       </c>
       <c r="D56" s="2">
         <v>5.9759817123413086</v>
       </c>
       <c r="E56" s="2">
-        <v>5.961550235748291</v>
+        <v>5.962409496307373</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>5.4435720443725586</v>
       </c>
       <c r="C57" s="2">
-        <v>5.3830595016479492</v>
+        <v>5.3841738700866699</v>
       </c>
       <c r="D57" s="2">
         <v>5.9282083511352539</v>
       </c>
       <c r="E57" s="2">
-        <v>5.9055700302124023</v>
+        <v>5.906031608581543</v>
       </c>
     </row>
     <row r="58">
@@ -1015,16 +1015,16 @@
         <v>42979</v>
       </c>
       <c r="B58" s="2">
-        <v>5.9829788208007812</v>
+        <v>5.9829788208007813</v>
       </c>
       <c r="C58" s="2">
-        <v>6.0389604568481445</v>
+        <v>6.0399703979492188</v>
       </c>
       <c r="D58" s="2">
         <v>5.8540778160095215</v>
       </c>
       <c r="E58" s="2">
-        <v>5.823704719543457</v>
+        <v>5.8237757682800293</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>6.1099758148193359</v>
       </c>
       <c r="C59" s="2">
-        <v>6.0266885757446289</v>
+        <v>6.0289640426635742</v>
       </c>
       <c r="D59" s="2">
         <v>5.7844376564025879</v>
       </c>
       <c r="E59" s="2">
-        <v>5.7787694931030273</v>
+        <v>5.7785439491271973</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>6.0532450675964355</v>
       </c>
       <c r="C60" s="2">
-        <v>6.0452232360839844</v>
+        <v>6.0434293746948242</v>
       </c>
       <c r="D60" s="2">
         <v>5.7119460105895996</v>
       </c>
       <c r="E60" s="2">
-        <v>5.6847691535949707</v>
+        <v>5.6844453811645508</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>6.0693883895874023</v>
       </c>
       <c r="C61" s="2">
-        <v>6.0572929382324219</v>
+        <v>6.0555562973022461</v>
       </c>
       <c r="D61" s="2">
         <v>5.862363338470459</v>
       </c>
       <c r="E61" s="2">
-        <v>5.827826976776123</v>
+        <v>5.827669620513916</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>5.9141836166381836</v>
       </c>
       <c r="C62" s="2">
-        <v>5.8617024421691895</v>
+        <v>5.8600130081176758</v>
       </c>
       <c r="D62" s="2">
         <v>5.8301868438720703</v>
       </c>
       <c r="E62" s="2">
-        <v>5.7879834175109863</v>
+        <v>5.7876720428466797</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>4.9696807861328125</v>
       </c>
       <c r="C63" s="2">
-        <v>5.062680721282959</v>
+        <v>5.0615568161010742</v>
       </c>
       <c r="D63" s="2">
-        <v>5.844581127166748</v>
+        <v>5.8445811271667481</v>
       </c>
       <c r="E63" s="2">
-        <v>5.7764649391174316</v>
+        <v>5.7759432792663574</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>5.2228355407714844</v>
       </c>
       <c r="C64" s="2">
-        <v>5.0894699096679688</v>
+        <v>5.0877776145935059</v>
       </c>
       <c r="D64" s="2">
         <v>5.7785630226135254</v>
       </c>
       <c r="E64" s="2">
-        <v>5.7187433242797852</v>
+        <v>5.7180929183959961</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>6.9954109191894531</v>
       </c>
       <c r="C65" s="2">
-        <v>6.8853659629821777</v>
+        <v>6.8875851631164551</v>
       </c>
       <c r="D65" s="2">
         <v>5.6650252342224121</v>
       </c>
       <c r="E65" s="2">
-        <v>5.5910000801086426</v>
+        <v>5.5905237197875977</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>5.1539840698242188</v>
       </c>
       <c r="C66" s="2">
-        <v>5.0244674682617188</v>
+        <v>5.0241951942443848</v>
       </c>
       <c r="D66" s="2">
-        <v>5.7393555641174316</v>
+        <v>5.7393555641174317</v>
       </c>
       <c r="E66" s="2">
-        <v>5.6493158340454102</v>
+        <v>5.6488614082336426</v>
       </c>
     </row>
     <row r="67">
@@ -1168,16 +1168,16 @@
         <v>43252</v>
       </c>
       <c r="B67" s="2">
-        <v>6.1125249862670898</v>
+        <v>6.1125249862670899</v>
       </c>
       <c r="C67" s="2">
-        <v>5.9352917671203613</v>
+        <v>5.9344100952148438</v>
       </c>
       <c r="D67" s="2">
         <v>5.6899991035461426</v>
       </c>
       <c r="E67" s="2">
-        <v>5.5973420143127441</v>
+        <v>5.5970296859741211</v>
       </c>
     </row>
     <row r="68">
@@ -1185,16 +1185,16 @@
         <v>43282</v>
       </c>
       <c r="B68" s="2">
-        <v>5.5158147811889648</v>
+        <v>5.5158147811889649</v>
       </c>
       <c r="C68" s="2">
-        <v>5.5071959495544434</v>
+        <v>5.5083127021789551</v>
       </c>
       <c r="D68" s="2">
-        <v>5.6835708618164062</v>
+        <v>5.6835708618164063</v>
       </c>
       <c r="E68" s="2">
-        <v>5.567009449005127</v>
+        <v>5.566901683807373</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>5.0314054489135742</v>
       </c>
       <c r="C69" s="2">
-        <v>4.8955340385437012</v>
+        <v>4.8953061103820801</v>
       </c>
       <c r="D69" s="2">
         <v>5.6933326721191406</v>
       </c>
       <c r="E69" s="2">
-        <v>5.5882320404052734</v>
+        <v>5.5886564254760742</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>6.7383604049682617</v>
       </c>
       <c r="C70" s="2">
-        <v>6.5821352005004883</v>
+        <v>6.580596923828125</v>
       </c>
       <c r="D70" s="2">
         <v>5.6192975044250488</v>
       </c>
       <c r="E70" s="2">
-        <v>5.5293426513671875</v>
+        <v>5.529754638671875</v>
       </c>
     </row>
     <row r="71">
@@ -1236,16 +1236,16 @@
         <v>43374</v>
       </c>
       <c r="B71" s="2">
-        <v>5.4699769020080566</v>
+        <v>5.4699769020080567</v>
       </c>
       <c r="C71" s="2">
-        <v>5.3939375877380371</v>
+        <v>5.3935246467590332</v>
       </c>
       <c r="D71" s="2">
         <v>5.6623845100402832</v>
       </c>
       <c r="E71" s="2">
-        <v>5.6050381660461426</v>
+        <v>5.6056790351867676</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>4.9118266105651855</v>
       </c>
       <c r="C72" s="2">
-        <v>4.7896862030029297</v>
+        <v>4.7904071807861328</v>
       </c>
       <c r="D72" s="2">
         <v>5.6130304336547852</v>
       </c>
       <c r="E72" s="2">
-        <v>5.5775256156921387</v>
+        <v>5.5779476165771484</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>5.3106899261474609</v>
       </c>
       <c r="C73" s="2">
-        <v>5.2804741859436035</v>
+        <v>5.2835698127746582</v>
       </c>
       <c r="D73" s="2">
         <v>5.6729302406311035</v>
       </c>
       <c r="E73" s="2">
-        <v>5.6182632446289062</v>
+        <v>5.6187958717346191</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>6.3290963172912598</v>
       </c>
       <c r="C74" s="2">
-        <v>6.3553624153137207</v>
+        <v>6.3574695587158203</v>
       </c>
       <c r="D74" s="2">
         <v>5.7780375480651855</v>
       </c>
       <c r="E74" s="2">
-        <v>5.7421679496765137</v>
+        <v>5.7428674697875977</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>5.5417633056640625</v>
       </c>
       <c r="C75" s="2">
-        <v>5.7057256698608398</v>
+        <v>5.707514762878418</v>
       </c>
       <c r="D75" s="2">
         <v>5.6354641914367676</v>
       </c>
       <c r="E75" s="2">
-        <v>5.6051845550537109</v>
+        <v>5.6060609817504883</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>5.668339729309082</v>
       </c>
       <c r="C76" s="2">
-        <v>5.6876797676086426</v>
+        <v>5.6848254203796387</v>
       </c>
       <c r="D76" s="2">
         <v>5.698610782623291</v>
       </c>
       <c r="E76" s="2">
-        <v>5.6814947128295898</v>
+        <v>5.6822481155395508</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>6.0549139976501465</v>
       </c>
       <c r="C77" s="2">
-        <v>5.8738322257995605</v>
+        <v>5.875948429107666</v>
       </c>
       <c r="D77" s="2">
         <v>5.7410635948181152</v>
       </c>
       <c r="E77" s="2">
-        <v>5.7305202484130859</v>
+        <v>5.7309894561767578</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>5.9773707389831543</v>
       </c>
       <c r="C78" s="2">
-        <v>6.010678768157959</v>
+        <v>6.0119504928588867</v>
       </c>
       <c r="D78" s="2">
         <v>5.7750325202941895</v>
       </c>
       <c r="E78" s="2">
-        <v>5.7459816932678223</v>
+        <v>5.7462711334228516</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>5.4551982879638672</v>
       </c>
       <c r="C79" s="2">
-        <v>5.3492846488952637</v>
+        <v>5.3493385314941406</v>
       </c>
       <c r="D79" s="2">
         <v>5.8070149421691895</v>
       </c>
       <c r="E79" s="2">
-        <v>5.769439697265625</v>
+        <v>5.7697906494140625</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>6.0383000373840332</v>
       </c>
       <c r="C80" s="2">
-        <v>6.0807290077209473</v>
+        <v>6.0792078971862793</v>
       </c>
       <c r="D80" s="2">
         <v>5.8738036155700684</v>
       </c>
       <c r="E80" s="2">
-        <v>5.7883210182189941</v>
+        <v>5.7886080741882324</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>5.2938985824584961</v>
       </c>
       <c r="C81" s="2">
-        <v>5.2309160232543945</v>
+        <v>5.2290816307067871</v>
       </c>
       <c r="D81" s="2">
         <v>5.7924022674560547</v>
       </c>
       <c r="E81" s="2">
-        <v>5.6997718811035156</v>
+        <v>5.7006330490112305</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>5.6164107322692871</v>
       </c>
       <c r="C82" s="2">
-        <v>5.4196267127990723</v>
+        <v>5.421104907989502</v>
       </c>
       <c r="D82" s="2">
         <v>5.7079815864562988</v>
       </c>
       <c r="E82" s="2">
-        <v>5.6377072334289551</v>
+        <v>5.6381912231445313</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>6.6169404983520508</v>
       </c>
       <c r="C83" s="2">
-        <v>6.5664849281311035</v>
+        <v>6.5691428184509277</v>
       </c>
       <c r="D83" s="2">
         <v>5.6915946006774902</v>
       </c>
       <c r="E83" s="2">
-        <v>5.6104803085327148</v>
+        <v>5.6109061241149902</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>6.1428580284118652</v>
       </c>
       <c r="C84" s="2">
-        <v>5.8756589889526367</v>
+        <v>5.8768720626831055</v>
       </c>
       <c r="D84" s="2">
         <v>5.6904311180114746</v>
       </c>
       <c r="E84" s="2">
-        <v>5.6044368743896484</v>
+        <v>5.6047029495239258</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>4.93572998046875</v>
       </c>
       <c r="C85" s="2">
-        <v>4.8907370567321777</v>
+        <v>4.8930525779724121</v>
       </c>
       <c r="D85" s="2">
         <v>5.7829852104187012</v>
       </c>
       <c r="E85" s="2">
-        <v>5.6929726600646973</v>
+        <v>5.6935677528381348</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>5.2951278686523438</v>
       </c>
       <c r="C86" s="2">
-        <v>5.3152480125427246</v>
+        <v>5.3139705657958984</v>
       </c>
       <c r="D86" s="2">
         <v>5.822411060333252</v>
       </c>
       <c r="E86" s="2">
-        <v>5.7369017601013184</v>
+        <v>5.737846851348877</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>5.8298854827880859</v>
       </c>
       <c r="C87" s="2">
-        <v>5.7656378746032715</v>
+        <v>5.7663836479187012</v>
       </c>
       <c r="D87" s="2">
         <v>5.9898324012756348</v>
       </c>
       <c r="E87" s="2">
-        <v>5.9244256019592285</v>
+        <v>5.9252991676330567</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>5.444730281829834</v>
       </c>
       <c r="C88" s="2">
-        <v>5.2948942184448242</v>
+        <v>5.2935123443603516</v>
       </c>
       <c r="D88" s="2">
         <v>6.0257463455200195</v>
       </c>
       <c r="E88" s="2">
-        <v>5.961000919342041</v>
+        <v>5.9616107940673828</v>
       </c>
     </row>
     <row r="89">
@@ -1542,16 +1542,16 @@
         <v>43922</v>
       </c>
       <c r="B89" s="2">
-        <v>6.871284008026123</v>
+        <v>6.8712840080261231</v>
       </c>
       <c r="C89" s="2">
-        <v>6.8775496482849121</v>
+        <v>6.8789892196655273</v>
       </c>
       <c r="D89" s="2">
         <v>6.0522208213806152</v>
       </c>
       <c r="E89" s="2">
-        <v>6.0059924125671387</v>
+        <v>6.0061535835266113</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>5.6487321853637695</v>
       </c>
       <c r="C90" s="2">
-        <v>5.6262784004211426</v>
+        <v>5.6275925636291504</v>
       </c>
       <c r="D90" s="2">
         <v>6.0533194541931152</v>
       </c>
       <c r="E90" s="2">
-        <v>6.0117878913879395</v>
+        <v>6.0115299224853516</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>7.1232032775878906</v>
       </c>
       <c r="C91" s="2">
-        <v>7.1073393821716309</v>
+        <v>7.1081762313842774</v>
       </c>
       <c r="D91" s="2">
         <v>6.1775832176208496</v>
       </c>
       <c r="E91" s="2">
-        <v>6.1421904563903809</v>
+        <v>6.1422691345214844</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>6.9401650428771973</v>
       </c>
       <c r="C92" s="2">
-        <v>6.8956646919250488</v>
+        <v>6.8959479331970215</v>
       </c>
       <c r="D92" s="2">
         <v>6.179023265838623</v>
       </c>
       <c r="E92" s="2">
-        <v>6.1582779884338379</v>
+        <v>6.1583390235900879</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>6.3811273574829102</v>
       </c>
       <c r="C93" s="2">
-        <v>6.280580997467041</v>
+        <v>6.2777571678161621</v>
       </c>
       <c r="D93" s="2">
         <v>6.2834682464599609</v>
       </c>
       <c r="E93" s="2">
-        <v>6.2612457275390625</v>
+        <v>6.2615346908569336</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>4.9456191062927246</v>
       </c>
       <c r="C94" s="2">
-        <v>4.9428987503051758</v>
+        <v>4.941439151763916</v>
       </c>
       <c r="D94" s="2">
         <v>6.2054262161254883</v>
       </c>
       <c r="E94" s="2">
-        <v>6.1525473594665527</v>
+        <v>6.1531033515930176</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>6.4135041236877441</v>
       </c>
       <c r="C95" s="2">
-        <v>6.4888706207275391</v>
+        <v>6.4906244277954102</v>
       </c>
       <c r="D95" s="2">
         <v>6.1821441650390625</v>
       </c>
       <c r="E95" s="2">
-        <v>6.1365718841552734</v>
+        <v>6.1368145942687988</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>5.8428459167480469</v>
       </c>
       <c r="C96" s="2">
-        <v>5.9104232788085938</v>
+        <v>5.9110107421875</v>
       </c>
       <c r="D96" s="2">
         <v>6.131619930267334</v>
       </c>
       <c r="E96" s="2">
-        <v>6.0914225578308105</v>
+        <v>6.0917487144470215</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>6.3847346305847168</v>
       </c>
       <c r="C97" s="2">
-        <v>6.2216038703918457</v>
+        <v>6.2222752571105957</v>
       </c>
       <c r="D97" s="2">
         <v>6.0031008720397949</v>
       </c>
       <c r="E97" s="2">
-        <v>5.9595184326171875</v>
+        <v>5.9597353935241699</v>
       </c>
     </row>
     <row r="98">
@@ -1695,16 +1695,16 @@
         <v>44197</v>
       </c>
       <c r="B98" s="2">
-        <v>6.1689062118530273</v>
+        <v>6.1689062118530274</v>
       </c>
       <c r="C98" s="2">
-        <v>5.8992671966552734</v>
+        <v>5.9031071662902832</v>
       </c>
       <c r="D98" s="2">
         <v>5.9465999603271484</v>
       </c>
       <c r="E98" s="2">
-        <v>5.9022927284240723</v>
+        <v>5.90277099609375</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>5.4391937255859375</v>
       </c>
       <c r="C99" s="2">
-        <v>5.4824991226196289</v>
+        <v>5.4809951782226563</v>
       </c>
       <c r="D99" s="2">
         <v>6.055762767791748</v>
       </c>
       <c r="E99" s="2">
-        <v>6.0121603012084961</v>
+        <v>6.0125036239624024</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>6.6684823036193848</v>
       </c>
       <c r="C100" s="2">
-        <v>6.700993537902832</v>
+        <v>6.7025814056396484</v>
       </c>
       <c r="D100" s="2">
         <v>6.0038275718688965</v>
       </c>
       <c r="E100" s="2">
-        <v>5.9415545463562012</v>
+        <v>5.9416236877441406</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>5.7834963798522949</v>
       </c>
       <c r="C101" s="2">
-        <v>5.7085304260253906</v>
+        <v>5.7078275680541992</v>
       </c>
       <c r="D101" s="2">
         <v>6.0322632789611816</v>
       </c>
       <c r="E101" s="2">
-        <v>5.9710617065429688</v>
+        <v>5.9713602066040039</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>5.8726191520690918</v>
       </c>
       <c r="C102" s="2">
-        <v>5.7655472755432129</v>
+        <v>5.7650766372680664</v>
       </c>
       <c r="D102" s="2">
         <v>5.9267077445983887</v>
       </c>
       <c r="E102" s="2">
-        <v>5.8704013824462891</v>
+        <v>5.8706107139587402</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>5.9280815124511719</v>
       </c>
       <c r="C103" s="2">
-        <v>5.9317054748535156</v>
+        <v>5.9290328025817871</v>
       </c>
       <c r="D103" s="2">
         <v>5.9088234901428223</v>
       </c>
       <c r="E103" s="2">
-        <v>5.8761482238769531</v>
+        <v>5.8762826919555664</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>5.9460883140563965</v>
       </c>
       <c r="C104" s="2">
-        <v>5.8534188270568848</v>
+        <v>5.8527069091796875</v>
       </c>
       <c r="D104" s="2">
-        <v>6.0314702987670898</v>
+        <v>6.0314702987670899</v>
       </c>
       <c r="E104" s="2">
-        <v>5.9839906692504883</v>
+        <v>5.9839177131652832</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>6.0987663269042969</v>
       </c>
       <c r="C105" s="2">
-        <v>6.1759886741638184</v>
+        <v>6.1786398887634277</v>
       </c>
       <c r="D105" s="2">
         <v>6.0353260040283203</v>
       </c>
       <c r="E105" s="2">
-        <v>5.9767179489135742</v>
+        <v>5.9766507148742676</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>5.4347352981567383</v>
       </c>
       <c r="C106" s="2">
-        <v>5.3156633377075195</v>
+        <v>5.3155307769775391</v>
       </c>
       <c r="D106" s="2">
         <v>6.2126164436340332</v>
       </c>
       <c r="E106" s="2">
-        <v>6.1356306076049805</v>
+        <v>6.1354150772094727</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>6.0079493522644043</v>
       </c>
       <c r="C107" s="2">
-        <v>5.9509859085083008</v>
+        <v>5.9541540145874023</v>
       </c>
       <c r="D107" s="2">
         <v>6.3129463195800781</v>
       </c>
       <c r="E107" s="2">
-        <v>6.249664306640625</v>
+        <v>6.2494778633117676</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>6.5430121421813965</v>
       </c>
       <c r="C108" s="2">
-        <v>6.4530825614929199</v>
+        <v>6.449709415435791</v>
       </c>
       <c r="D108" s="2">
-        <v>6.4722661972045898</v>
+        <v>6.4722661972045899</v>
       </c>
       <c r="E108" s="2">
-        <v>6.3941826820373535</v>
+        <v>6.3943080902099609</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>6.7031855583190918</v>
       </c>
       <c r="C109" s="2">
-        <v>6.6355385780334473</v>
+        <v>6.6371793746948242</v>
       </c>
       <c r="D109" s="2">
         <v>6.6922817230224609</v>
       </c>
       <c r="E109" s="2">
-        <v>6.6400661468505859</v>
+        <v>6.6404910087585449</v>
       </c>
     </row>
     <row r="110">
@@ -1899,16 +1899,16 @@
         <v>44562</v>
       </c>
       <c r="B110" s="2">
-        <v>7.3791117668151855</v>
+        <v>7.3791117668151856</v>
       </c>
       <c r="C110" s="2">
-        <v>7.1387438774108887</v>
+        <v>7.1367058753967285</v>
       </c>
       <c r="D110" s="2">
-        <v>6.9277563095092773</v>
+        <v>6.9277563095092774</v>
       </c>
       <c r="E110" s="2">
-        <v>6.8588104248046875</v>
+        <v>6.8586349487304688</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>6.7755856513977051</v>
       </c>
       <c r="C111" s="2">
-        <v>6.7918500900268555</v>
+        <v>6.7916436195373535</v>
       </c>
       <c r="D111" s="2">
         <v>7.1573972702026367</v>
       </c>
       <c r="E111" s="2">
-        <v>7.0791664123535156</v>
+        <v>7.078946590423584</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>7.3619632720947266</v>
       </c>
       <c r="C112" s="2">
-        <v>7.2323737144470215</v>
+        <v>7.2325029373168945</v>
       </c>
       <c r="D112" s="2">
-        <v>7.2840347290039062</v>
+        <v>7.2840347290039063</v>
       </c>
       <c r="E112" s="2">
-        <v>7.2188992500305176</v>
+        <v>7.2183737754821777</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>7.9262242317199707</v>
       </c>
       <c r="C113" s="2">
-        <v>8.0663671493530273</v>
+        <v>8.0683536529541016</v>
       </c>
       <c r="D113" s="2">
         <v>7.3420815467834473</v>
       </c>
       <c r="E113" s="2">
-        <v>7.280789852142334</v>
+        <v>7.2809901237487793</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>8.2180414199829102</v>
       </c>
       <c r="C114" s="2">
-        <v>8.144688606262207</v>
+        <v>8.1419353485107422</v>
       </c>
       <c r="D114" s="2">
         <v>7.3419795036315918</v>
       </c>
       <c r="E114" s="2">
-        <v>7.2608423233032227</v>
+        <v>7.2607264518737793</v>
       </c>
     </row>
     <row r="115">
@@ -1984,16 +1984,16 @@
         <v>44713</v>
       </c>
       <c r="B115" s="2">
-        <v>7.5015029907226562</v>
+        <v>7.5015029907226563</v>
       </c>
       <c r="C115" s="2">
-        <v>7.2988677024841309</v>
+        <v>7.2983355522155762</v>
       </c>
       <c r="D115" s="2">
         <v>7.3138532638549805</v>
       </c>
       <c r="E115" s="2">
-        <v>7.2693567276000977</v>
+        <v>7.2694849967956543</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>7.1476860046386719</v>
       </c>
       <c r="C116" s="2">
-        <v>7.2085824012756348</v>
+        <v>7.2089962959289551</v>
       </c>
       <c r="D116" s="2">
         <v>7.4304714202880859</v>
       </c>
       <c r="E116" s="2">
-        <v>7.389976978302002</v>
+        <v>7.3901219367980957</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>7.0654339790344238</v>
       </c>
       <c r="C117" s="2">
-        <v>7.0100975036621094</v>
+        <v>7.0132603645324707</v>
       </c>
       <c r="D117" s="2">
         <v>7.4479308128356934</v>
       </c>
       <c r="E117" s="2">
-        <v>7.4212002754211426</v>
+        <v>7.4216361045837402</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>6.7022643089294434</v>
       </c>
       <c r="C118" s="2">
-        <v>6.4560089111328125</v>
+        <v>6.454803466796875</v>
       </c>
       <c r="D118" s="2">
-        <v>7.5023574829101562</v>
+        <v>7.5023574829101563</v>
       </c>
       <c r="E118" s="2">
-        <v>7.4504656791687012</v>
+        <v>7.4508275985717773</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>7.1259779930114746</v>
       </c>
       <c r="C119" s="2">
-        <v>7.2153730392456055</v>
+        <v>7.2155351638793945</v>
       </c>
       <c r="D119" s="2">
         <v>7.454254150390625</v>
       </c>
       <c r="E119" s="2">
-        <v>7.4109930992126465</v>
+        <v>7.4119749069213867</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>7.8251481056213379</v>
       </c>
       <c r="C120" s="2">
-        <v>7.8774333000183105</v>
+        <v>7.8773751258850098</v>
       </c>
       <c r="D120" s="2">
-        <v>7.4977941513061523</v>
+        <v>7.4977941513061524</v>
       </c>
       <c r="E120" s="2">
-        <v>7.4697036743164062</v>
+        <v>7.470848560333252</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>7.5191001892089844</v>
       </c>
       <c r="C121" s="2">
-        <v>7.5133852958679199</v>
+        <v>7.5161285400390625</v>
       </c>
       <c r="D121" s="2">
         <v>7.5405926704406738</v>
       </c>
       <c r="E121" s="2">
-        <v>7.4892206192016602</v>
+        <v>7.4902472496032715</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>8.4160623550415039</v>
       </c>
       <c r="C122" s="2">
-        <v>8.3297548294067383</v>
+        <v>8.3310766220092774</v>
       </c>
       <c r="D122" s="2">
-        <v>7.5500564575195312</v>
+        <v>7.5500564575195313</v>
       </c>
       <c r="E122" s="2">
-        <v>7.483180046081543</v>
+        <v>7.4837751388549805</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>7.7851109504699707</v>
       </c>
       <c r="C123" s="2">
-        <v>7.7894368171691895</v>
+        <v>7.7922630310058594</v>
       </c>
       <c r="D123" s="2">
         <v>7.5490827560424805</v>
       </c>
       <c r="E123" s="2">
-        <v>7.4989361763000488</v>
+        <v>7.4996342658996582</v>
       </c>
     </row>
     <row r="124">
@@ -2137,16 +2137,16 @@
         <v>44986</v>
       </c>
       <c r="B124" s="2">
-        <v>7.8933625221252441</v>
+        <v>7.8933625221252442</v>
       </c>
       <c r="C124" s="2">
-        <v>7.8272619247436523</v>
+        <v>7.8281989097595215</v>
       </c>
       <c r="D124" s="2">
         <v>7.5225167274475098</v>
       </c>
       <c r="E124" s="2">
-        <v>7.4827384948730469</v>
+        <v>7.4835433959960938</v>
       </c>
     </row>
     <row r="125">
@@ -2154,16 +2154,16 @@
         <v>45017</v>
       </c>
       <c r="B125" s="2">
-        <v>7.532874584197998</v>
+        <v>7.5328745841979981</v>
       </c>
       <c r="C125" s="2">
-        <v>7.3842353820800781</v>
+        <v>7.3835835456848145</v>
       </c>
       <c r="D125" s="2">
         <v>7.3106889724731445</v>
       </c>
       <c r="E125" s="2">
-        <v>7.2628483772277832</v>
+        <v>7.2635469436645508</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>7.1506085395812988</v>
       </c>
       <c r="C126" s="2">
-        <v>6.9557313919067383</v>
+        <v>6.9550108909606934</v>
       </c>
       <c r="D126" s="2">
-        <v>7.284637451171875</v>
+        <v>7.2155447006225586</v>
       </c>
       <c r="E126" s="2">
-        <v>7.2315316200256348</v>
+        <v>7.1527056694030762</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>6.6934981346130371</v>
       </c>
       <c r="C127" s="2">
-        <v>6.5978116989135742</v>
+        <v>6.597536563873291</v>
       </c>
       <c r="D127" s="2">
-        <v>7.1230053901672363</v>
+        <v>7.0654797554016113</v>
       </c>
       <c r="E127" s="2">
-        <v>7.0746421813964844</v>
+        <v>7.0054092407226563</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>6.8868856430053711</v>
       </c>
       <c r="C128" s="2">
-        <v>7.0695948600769043</v>
+        <v>7.0707187652587891</v>
       </c>
       <c r="D128" s="2">
-        <v>7.0126543045043945</v>
+        <v>6.9626755714416504</v>
       </c>
       <c r="E128" s="2">
-        <v>6.955510139465332</v>
+        <v>6.8930015563964844</v>
       </c>
     </row>
     <row r="129">
@@ -2225,23 +2225,31 @@
         <v>5.9186968803405762</v>
       </c>
       <c r="C129" s="2">
-        <v>5.8984246253967285</v>
+        <v>5.897404670715332</v>
       </c>
       <c r="D129" s="2">
-        <v>6.836512565612793</v>
+        <v>6.807560920715332</v>
       </c>
       <c r="E129" s="2">
-        <v>6.7811594009399414</v>
+        <v>6.7371354103088379</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
         <v>45170</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="B130" s="2">
+        <v>6.6628012657165527</v>
+      </c>
+      <c r="C130" s="2">
+        <v>6.518557071685791</v>
+      </c>
+      <c r="D130" s="2">
+        <v>6.6624979972839356</v>
+      </c>
+      <c r="E130" s="2">
+        <v>6.6078457832336426</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
@@ -2297,6 +2305,51 @@
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_stdev_lt.xlsx
+++ b/SCE_stdev_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>4.5301918983459473</v>
       </c>
       <c r="C7" s="2">
-        <v>4.4011898040771484</v>
+        <v>4.4030833244323731</v>
       </c>
       <c r="D7" s="2">
         <v>5.3624835014343262</v>
       </c>
       <c r="E7" s="2">
-        <v>5.2286005020141602</v>
+        <v>5.2314839363098145</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>5.0946636199951172</v>
       </c>
       <c r="C8" s="2">
-        <v>4.9107074737548828</v>
+        <v>4.9134650230407715</v>
       </c>
       <c r="D8" s="2">
         <v>5.4869284629821777</v>
       </c>
       <c r="E8" s="2">
-        <v>5.4227848052978516</v>
+        <v>5.425501823425293</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>5.6854672431945801</v>
       </c>
       <c r="C9" s="2">
-        <v>5.6041569709777832</v>
+        <v>5.6068034172058106</v>
       </c>
       <c r="D9" s="2">
         <v>5.4606180191040039</v>
       </c>
       <c r="E9" s="2">
-        <v>5.3960938453674317</v>
+        <v>5.398902416229248</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>5.9431967735290527</v>
       </c>
       <c r="C10" s="2">
-        <v>5.9163098335266113</v>
+        <v>5.9217257499694824</v>
       </c>
       <c r="D10" s="2">
         <v>5.5678534507751465</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5141654014587402</v>
+        <v>5.5164384841918945</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>5.5588984489440918</v>
       </c>
       <c r="C11" s="2">
-        <v>5.3106379508972168</v>
+        <v>5.3123412132263184</v>
       </c>
       <c r="D11" s="2">
         <v>5.6390500068664551</v>
       </c>
       <c r="E11" s="2">
-        <v>5.5720334053039551</v>
+        <v>5.5739436149597168</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>6.1091527938842774</v>
       </c>
       <c r="C12" s="2">
-        <v>6.3937077522277832</v>
+        <v>6.3955926895141602</v>
       </c>
       <c r="D12" s="2">
         <v>5.8802719116210938</v>
       </c>
       <c r="E12" s="2">
-        <v>5.8250184059143066</v>
+        <v>5.826446533203125</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>5.3027558326721191</v>
       </c>
       <c r="C13" s="2">
-        <v>5.2359457015991211</v>
+        <v>5.2393054962158203</v>
       </c>
       <c r="D13" s="2">
         <v>6.1278777122497559</v>
       </c>
       <c r="E13" s="2">
-        <v>6.1054472923278809</v>
+        <v>6.106755256652832</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>6.3185024261474609</v>
       </c>
       <c r="C14" s="2">
-        <v>6.3406667709350586</v>
+        <v>6.3391909599304199</v>
       </c>
       <c r="D14" s="2">
         <v>6.1767430305480957</v>
       </c>
       <c r="E14" s="2">
-        <v>6.1618351936340332</v>
+        <v>6.1628298759460449</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>6.2086200714111328</v>
       </c>
       <c r="C15" s="2">
-        <v>6.0349769592285156</v>
+        <v>6.0339856147766113</v>
       </c>
       <c r="D15" s="2">
         <v>6.1769070625305176</v>
       </c>
       <c r="E15" s="2">
-        <v>6.1676859855651855</v>
+        <v>6.1684494018554688</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>6.7011919021606445</v>
       </c>
       <c r="C16" s="2">
-        <v>6.6780567169189453</v>
+        <v>6.6756100654602051</v>
       </c>
       <c r="D16" s="2">
         <v>6.1405487060546875</v>
       </c>
       <c r="E16" s="2">
-        <v>6.1638784408569336</v>
+        <v>6.1645336151123047</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>7.323115348815918</v>
       </c>
       <c r="C17" s="2">
-        <v>7.4345674514770508</v>
+        <v>7.4362421035766602</v>
       </c>
       <c r="D17" s="2">
         <v>6.0390791893005371</v>
       </c>
       <c r="E17" s="2">
-        <v>6.0168251991271973</v>
+        <v>6.0169949531555176</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>6.1252527236938477</v>
       </c>
       <c r="C18" s="2">
-        <v>6.1116461753845215</v>
+        <v>6.1114764213562012</v>
       </c>
       <c r="D18" s="2">
         <v>5.976264476776123</v>
       </c>
       <c r="E18" s="2">
-        <v>5.9141831398010254</v>
+        <v>5.9138178825378418</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>5.944674015045166</v>
       </c>
       <c r="C19" s="2">
-        <v>5.9689674377441406</v>
+        <v>5.9722981452941895</v>
       </c>
       <c r="D19" s="2">
         <v>5.8484854698181152</v>
       </c>
       <c r="E19" s="2">
-        <v>5.7806434631347656</v>
+        <v>5.7806267738342285</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>5.2316741943359375</v>
       </c>
       <c r="C20" s="2">
-        <v>5.2763710021972656</v>
+        <v>5.2771005630493164</v>
       </c>
       <c r="D20" s="2">
         <v>5.9609379768371582</v>
       </c>
       <c r="E20" s="2">
-        <v>5.9059324264526367</v>
+        <v>5.9064121246337891</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>5.1959242820739746</v>
       </c>
       <c r="C21" s="2">
-        <v>5.0702271461486816</v>
+        <v>5.067744255065918</v>
       </c>
       <c r="D21" s="2">
         <v>5.8619036674499512</v>
       </c>
       <c r="E21" s="2">
-        <v>5.8023934364318848</v>
+        <v>5.8029422760009766</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>4.7374272346496582</v>
       </c>
       <c r="C22" s="2">
-        <v>4.3121705055236817</v>
+        <v>4.3107123374938965</v>
       </c>
       <c r="D22" s="2">
         <v>5.6456847190856934</v>
       </c>
       <c r="E22" s="2">
-        <v>5.5461030006408691</v>
+        <v>5.5463466644287109</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>5.1684908866882324</v>
       </c>
       <c r="C23" s="2">
-        <v>5.1388063430786133</v>
+        <v>5.1404705047607422</v>
       </c>
       <c r="D23" s="2">
         <v>5.7407140731811524</v>
       </c>
       <c r="E23" s="2">
-        <v>5.6430239677429199</v>
+        <v>5.6430125236511231</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>7.2206926345825195</v>
       </c>
       <c r="C24" s="2">
-        <v>7.1625785827636719</v>
+        <v>7.1660542488098145</v>
       </c>
       <c r="D24" s="2">
         <v>5.7031898498535156</v>
       </c>
       <c r="E24" s="2">
-        <v>5.5903515815734863</v>
+        <v>5.5895137786865234</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>5.8098797798156738</v>
       </c>
       <c r="C25" s="2">
-        <v>5.7462062835693359</v>
+        <v>5.744382381439209</v>
       </c>
       <c r="D25" s="2">
         <v>5.8179006576538086</v>
       </c>
       <c r="E25" s="2">
-        <v>5.7333168983459473</v>
+        <v>5.7324910163879395</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>5.3771452903747559</v>
       </c>
       <c r="C26" s="2">
-        <v>5.1279540061950684</v>
+        <v>5.1268792152404785</v>
       </c>
       <c r="D26" s="2">
         <v>5.9916996955871582</v>
       </c>
       <c r="E26" s="2">
-        <v>5.9182543754577637</v>
+        <v>5.9177975654602051</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>6.9805169105529785</v>
       </c>
       <c r="C27" s="2">
-        <v>6.9839363098144531</v>
+        <v>6.9814701080322266</v>
       </c>
       <c r="D27" s="2">
         <v>6.1422090530395508</v>
       </c>
       <c r="E27" s="2">
-        <v>6.1183595657348633</v>
+        <v>6.118037223815918</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>5.606959342956543</v>
       </c>
       <c r="C28" s="2">
-        <v>5.4949140548706055</v>
+        <v>5.4908089637756348</v>
       </c>
       <c r="D28" s="2">
         <v>6.2517604827880859</v>
       </c>
       <c r="E28" s="2">
-        <v>6.2253460884094238</v>
+        <v>6.224952220916748</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>6.2640681266784668</v>
       </c>
       <c r="C29" s="2">
-        <v>6.5630598068237305</v>
+        <v>6.5638961791992188</v>
       </c>
       <c r="D29" s="2">
         <v>6.1346220970153809</v>
       </c>
       <c r="E29" s="2">
-        <v>6.1055569648742676</v>
+        <v>6.1049575805664063</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>6.7601170539855957</v>
       </c>
       <c r="C30" s="2">
-        <v>6.7346644401550293</v>
+        <v>6.7355022430419922</v>
       </c>
       <c r="D30" s="2">
         <v>6.103238582611084</v>
       </c>
       <c r="E30" s="2">
-        <v>6.0712180137634277</v>
+        <v>6.0705051422119141</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>6.0920100212097168</v>
       </c>
       <c r="C31" s="2">
-        <v>6.1131143569946289</v>
+        <v>6.1128726005554199</v>
       </c>
       <c r="D31" s="2">
         <v>6.1025605201721191</v>
       </c>
       <c r="E31" s="2">
-        <v>6.0983929634094238</v>
+        <v>6.0977029800415039</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>6.1544570922851563</v>
       </c>
       <c r="C32" s="2">
-        <v>6.1016874313354492</v>
+        <v>6.1027045249938965</v>
       </c>
       <c r="D32" s="2">
         <v>5.9501290321350098</v>
       </c>
       <c r="E32" s="2">
-        <v>5.9490385055541992</v>
+        <v>5.9486961364746094</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>6.1664457321166992</v>
       </c>
       <c r="C33" s="2">
-        <v>6.0844769477844238</v>
+        <v>6.0861039161682129</v>
       </c>
       <c r="D33" s="2">
         <v>5.8441224098205567</v>
       </c>
       <c r="E33" s="2">
-        <v>5.8484172821044922</v>
+        <v>5.8487739562988281</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>5.5274257659912109</v>
       </c>
       <c r="C34" s="2">
-        <v>5.4371566772460938</v>
+        <v>5.4343080520629883</v>
       </c>
       <c r="D34" s="2">
         <v>5.7594237327575684</v>
       </c>
       <c r="E34" s="2">
-        <v>5.7391409873962402</v>
+        <v>5.7395672798156738</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>5.3710432052612305</v>
       </c>
       <c r="C35" s="2">
-        <v>5.372525691986084</v>
+        <v>5.3716611862182617</v>
       </c>
       <c r="D35" s="2">
         <v>5.549527645111084</v>
       </c>
       <c r="E35" s="2">
-        <v>5.5099020004272461</v>
+        <v>5.5104227066040039</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>5.6086359024047852</v>
       </c>
       <c r="C36" s="2">
-        <v>5.6397485733032227</v>
+        <v>5.6404080390930176</v>
       </c>
       <c r="D36" s="2">
         <v>5.6549420356750488</v>
       </c>
       <c r="E36" s="2">
-        <v>5.5757656097412109</v>
+        <v>5.5764427185058594</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>4.652897834777832</v>
       </c>
       <c r="C37" s="2">
-        <v>4.5893211364746094</v>
+        <v>4.5915093421936035</v>
       </c>
       <c r="D37" s="2">
         <v>5.640777587890625</v>
       </c>
       <c r="E37" s="2">
-        <v>5.545020580291748</v>
+        <v>5.5456457138061523</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>5.5017795562744141</v>
       </c>
       <c r="C38" s="2">
-        <v>5.5795750617980957</v>
+        <v>5.5810337066650391</v>
       </c>
       <c r="D38" s="2">
         <v>5.5401191711425781</v>
       </c>
       <c r="E38" s="2">
-        <v>5.4357185363769531</v>
+        <v>5.4364180564880371</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>4.8710522651672363</v>
       </c>
       <c r="C39" s="2">
-        <v>4.671511173248291</v>
+        <v>4.6732034683227539</v>
       </c>
       <c r="D39" s="2">
         <v>5.5602965354919434</v>
       </c>
       <c r="E39" s="2">
-        <v>5.4524421691894531</v>
+        <v>5.4536051750183105</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>7.0407414436340332</v>
       </c>
       <c r="C40" s="2">
-        <v>6.7058863639831543</v>
+        <v>6.7070508003234863</v>
       </c>
       <c r="D40" s="2">
         <v>5.5558099746704102</v>
       </c>
       <c r="E40" s="2">
-        <v>5.4311437606811524</v>
+        <v>5.4323554039001465</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>6.0269770622253418</v>
       </c>
       <c r="C41" s="2">
-        <v>5.8249835968017578</v>
+        <v>5.8255343437194824</v>
       </c>
       <c r="D41" s="2">
         <v>5.6252870559692383</v>
       </c>
       <c r="E41" s="2">
-        <v>5.485079288482666</v>
+        <v>5.4865379333496094</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>5.260521411895752</v>
       </c>
       <c r="C42" s="2">
-        <v>5.1007571220397949</v>
+        <v>5.1030550003051758</v>
       </c>
       <c r="D42" s="2">
         <v>5.6961116790771484</v>
       </c>
       <c r="E42" s="2">
-        <v>5.5434131622314453</v>
+        <v>5.5448741912841797</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>5.7090187072753906</v>
       </c>
       <c r="C43" s="2">
-        <v>5.5876693725585938</v>
+        <v>5.5889887809753418</v>
       </c>
       <c r="D43" s="2">
         <v>5.7380242347717285</v>
       </c>
       <c r="E43" s="2">
-        <v>5.5721640586853027</v>
+        <v>5.5729899406433106</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>5.3306670188903809</v>
       </c>
       <c r="C44" s="2">
-        <v>5.180840015411377</v>
+        <v>5.1804170608520508</v>
       </c>
       <c r="D44" s="2">
         <v>5.889378547668457</v>
       </c>
       <c r="E44" s="2">
-        <v>5.7418174743652344</v>
+        <v>5.7426834106445313</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>6.2339272499084473</v>
       </c>
       <c r="C45" s="2">
-        <v>6.1251702308654785</v>
+        <v>6.1280474662780762</v>
       </c>
       <c r="D45" s="2">
         <v>5.8384127616882324</v>
       </c>
       <c r="E45" s="2">
-        <v>5.736386775970459</v>
+        <v>5.7367715835571289</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>5.290318489074707</v>
       </c>
       <c r="C46" s="2">
-        <v>5.1143264770507813</v>
+        <v>5.1165385246276856</v>
       </c>
       <c r="D46" s="2">
         <v>5.8637819290161133</v>
       </c>
       <c r="E46" s="2">
-        <v>5.7833900451660156</v>
+        <v>5.7839632034301758</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>5.8789925575256348</v>
       </c>
       <c r="C47" s="2">
-        <v>5.8383331298828125</v>
+        <v>5.8340730667114258</v>
       </c>
       <c r="D47" s="2">
         <v>6.0151686668395996</v>
       </c>
       <c r="E47" s="2">
-        <v>5.9619584083557129</v>
+        <v>5.9621429443359375</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>6.2332439422607422</v>
       </c>
       <c r="C48" s="2">
-        <v>6.1983928680419922</v>
+        <v>6.200444221496582</v>
       </c>
       <c r="D48" s="2">
         <v>6.1029829978942871</v>
       </c>
       <c r="E48" s="2">
-        <v>6.0703234672546387</v>
+        <v>6.0700254440307617</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>6.5820488929748535</v>
       </c>
       <c r="C49" s="2">
-        <v>6.6570086479187012</v>
+        <v>6.6538467407226563</v>
       </c>
       <c r="D49" s="2">
         <v>6.2419490814208984</v>
       </c>
       <c r="E49" s="2">
-        <v>6.2280430793762207</v>
+        <v>6.2278532981872559</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>6.2552971839904785</v>
       </c>
       <c r="C50" s="2">
-        <v>6.2480134963989258</v>
+        <v>6.2502579689025879</v>
       </c>
       <c r="D50" s="2">
         <v>6.1711173057556152</v>
       </c>
       <c r="E50" s="2">
-        <v>6.1550955772399902</v>
+        <v>6.1544294357299805</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>6.6230058670043945</v>
       </c>
       <c r="C51" s="2">
-        <v>6.7078700065612793</v>
+        <v>6.7066726684570313</v>
       </c>
       <c r="D51" s="2">
         <v>6.2361111640930176</v>
       </c>
       <c r="E51" s="2">
-        <v>6.246243953704834</v>
+        <v>6.2448902130126953</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>6.4993462562561035</v>
       </c>
       <c r="C52" s="2">
-        <v>6.562957763671875</v>
+        <v>6.5599331855773926</v>
       </c>
       <c r="D52" s="2">
         <v>6.2097396850585938</v>
       </c>
       <c r="E52" s="2">
-        <v>6.2196035385131836</v>
+        <v>6.2185344696044922</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>6.5813608169555664</v>
       </c>
       <c r="C53" s="2">
-        <v>6.6003131866455078</v>
+        <v>6.6008648872375488</v>
       </c>
       <c r="D53" s="2">
         <v>6.1219987869262695</v>
       </c>
       <c r="E53" s="2">
-        <v>6.1291346549987793</v>
+        <v>6.1281461715698242</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>5.5964436531066895</v>
       </c>
       <c r="C54" s="2">
-        <v>5.4686441421508789</v>
+        <v>5.4672346115112305</v>
       </c>
       <c r="D54" s="2">
         <v>6.0554351806640625</v>
       </c>
       <c r="E54" s="2">
-        <v>6.060575008392334</v>
+        <v>6.0598702430725098</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>5.8752603530883789</v>
       </c>
       <c r="C55" s="2">
-        <v>5.9346637725830078</v>
+        <v>5.9306836128234863</v>
       </c>
       <c r="D55" s="2">
         <v>6.0392885208129883</v>
       </c>
       <c r="E55" s="2">
-        <v>6.0362362861633301</v>
+        <v>6.0355062484741211</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>5.6416521072387695</v>
       </c>
       <c r="C56" s="2">
-        <v>5.5985684394836426</v>
+        <v>5.5968713760375977</v>
       </c>
       <c r="D56" s="2">
         <v>5.9759817123413086</v>
       </c>
       <c r="E56" s="2">
-        <v>5.962409496307373</v>
+        <v>5.9618968963623047</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>5.4435720443725586</v>
       </c>
       <c r="C57" s="2">
-        <v>5.3841738700866699</v>
+        <v>5.3869519233703613</v>
       </c>
       <c r="D57" s="2">
         <v>5.9282083511352539</v>
       </c>
       <c r="E57" s="2">
-        <v>5.906031608581543</v>
+        <v>5.9057426452636719</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>5.9829788208007813</v>
       </c>
       <c r="C58" s="2">
-        <v>6.0399703979492188</v>
+        <v>6.0393624305725098</v>
       </c>
       <c r="D58" s="2">
         <v>5.8540778160095215</v>
       </c>
       <c r="E58" s="2">
-        <v>5.8237757682800293</v>
+        <v>5.8235111236572266</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>6.1099758148193359</v>
       </c>
       <c r="C59" s="2">
-        <v>6.0289640426635742</v>
+        <v>6.0309820175170898</v>
       </c>
       <c r="D59" s="2">
         <v>5.7844376564025879</v>
       </c>
       <c r="E59" s="2">
-        <v>5.7785439491271973</v>
+        <v>5.7782459259033203</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>6.0532450675964355</v>
       </c>
       <c r="C60" s="2">
-        <v>6.0434293746948242</v>
+        <v>6.0441861152648926</v>
       </c>
       <c r="D60" s="2">
         <v>5.7119460105895996</v>
       </c>
       <c r="E60" s="2">
-        <v>5.6844453811645508</v>
+        <v>5.6845364570617676</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>6.0693883895874023</v>
       </c>
       <c r="C61" s="2">
-        <v>6.0555562973022461</v>
+        <v>6.0545487403869629</v>
       </c>
       <c r="D61" s="2">
         <v>5.862363338470459</v>
       </c>
       <c r="E61" s="2">
-        <v>5.827669620513916</v>
+        <v>5.8278603553771973</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>5.9141836166381836</v>
       </c>
       <c r="C62" s="2">
-        <v>5.8600130081176758</v>
+        <v>5.8607778549194336</v>
       </c>
       <c r="D62" s="2">
         <v>5.8301868438720703</v>
       </c>
       <c r="E62" s="2">
-        <v>5.7876720428466797</v>
+        <v>5.7873740196228027</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>4.9696807861328125</v>
       </c>
       <c r="C63" s="2">
-        <v>5.0615568161010742</v>
+        <v>5.059847354888916</v>
       </c>
       <c r="D63" s="2">
         <v>5.8445811271667481</v>
       </c>
       <c r="E63" s="2">
-        <v>5.7759432792663574</v>
+        <v>5.7755570411682129</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>5.2228355407714844</v>
       </c>
       <c r="C64" s="2">
-        <v>5.0877776145935059</v>
+        <v>5.0872983932495117</v>
       </c>
       <c r="D64" s="2">
         <v>5.7785630226135254</v>
       </c>
       <c r="E64" s="2">
-        <v>5.7180929183959961</v>
+        <v>5.7180042266845703</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>6.9954109191894531</v>
       </c>
       <c r="C65" s="2">
-        <v>6.8875851631164551</v>
+        <v>6.8867874145507813</v>
       </c>
       <c r="D65" s="2">
         <v>5.6650252342224121</v>
       </c>
       <c r="E65" s="2">
-        <v>5.5905237197875977</v>
+        <v>5.5906052589416504</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>5.1539840698242188</v>
       </c>
       <c r="C66" s="2">
-        <v>5.0241951942443848</v>
+        <v>5.0225763320922852</v>
       </c>
       <c r="D66" s="2">
         <v>5.7393555641174317</v>
       </c>
       <c r="E66" s="2">
-        <v>5.6488614082336426</v>
+        <v>5.6485109329223633</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>6.1125249862670899</v>
       </c>
       <c r="C67" s="2">
-        <v>5.9344100952148438</v>
+        <v>5.9330077171325684</v>
       </c>
       <c r="D67" s="2">
         <v>5.6899991035461426</v>
       </c>
       <c r="E67" s="2">
-        <v>5.5970296859741211</v>
+        <v>5.5965838432312012</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>5.5158147811889649</v>
       </c>
       <c r="C68" s="2">
-        <v>5.5083127021789551</v>
+        <v>5.5130090713500977</v>
       </c>
       <c r="D68" s="2">
         <v>5.6835708618164063</v>
       </c>
       <c r="E68" s="2">
-        <v>5.566901683807373</v>
+        <v>5.5667338371276856</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>5.0314054489135742</v>
       </c>
       <c r="C69" s="2">
-        <v>4.8953061103820801</v>
+        <v>4.8975963592529297</v>
       </c>
       <c r="D69" s="2">
         <v>5.6933326721191406</v>
       </c>
       <c r="E69" s="2">
-        <v>5.5886564254760742</v>
+        <v>5.5890393257141113</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>6.7383604049682617</v>
       </c>
       <c r="C70" s="2">
-        <v>6.580596923828125</v>
+        <v>6.5756988525390625</v>
       </c>
       <c r="D70" s="2">
         <v>5.6192975044250488</v>
       </c>
       <c r="E70" s="2">
-        <v>5.529754638671875</v>
+        <v>5.5304965972900391</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>5.4699769020080567</v>
       </c>
       <c r="C71" s="2">
-        <v>5.3935246467590332</v>
+        <v>5.3934311866760254</v>
       </c>
       <c r="D71" s="2">
         <v>5.6623845100402832</v>
       </c>
       <c r="E71" s="2">
-        <v>5.6056790351867676</v>
+        <v>5.6068744659423828</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>4.9118266105651855</v>
       </c>
       <c r="C72" s="2">
-        <v>4.7904071807861328</v>
+        <v>4.7911992073059082</v>
       </c>
       <c r="D72" s="2">
         <v>5.6130304336547852</v>
       </c>
       <c r="E72" s="2">
-        <v>5.5779476165771484</v>
+        <v>5.579197883605957</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>5.3106899261474609</v>
       </c>
       <c r="C73" s="2">
-        <v>5.2835698127746582</v>
+        <v>5.2880468368530273</v>
       </c>
       <c r="D73" s="2">
         <v>5.6729302406311035</v>
       </c>
       <c r="E73" s="2">
-        <v>5.6187958717346191</v>
+        <v>5.619783878326416</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>6.3290963172912598</v>
       </c>
       <c r="C74" s="2">
-        <v>6.3574695587158203</v>
+        <v>6.3599028587341309</v>
       </c>
       <c r="D74" s="2">
         <v>5.7780375480651855</v>
       </c>
       <c r="E74" s="2">
-        <v>5.7428674697875977</v>
+        <v>5.7440810203552246</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>5.5417633056640625</v>
       </c>
       <c r="C75" s="2">
-        <v>5.707514762878418</v>
+        <v>5.7099790573120117</v>
       </c>
       <c r="D75" s="2">
         <v>5.6354641914367676</v>
       </c>
       <c r="E75" s="2">
-        <v>5.6060609817504883</v>
+        <v>5.6078572273254395</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>5.668339729309082</v>
       </c>
       <c r="C76" s="2">
-        <v>5.6848254203796387</v>
+        <v>5.6839165687561035</v>
       </c>
       <c r="D76" s="2">
         <v>5.698610782623291</v>
       </c>
       <c r="E76" s="2">
-        <v>5.6822481155395508</v>
+        <v>5.6845526695251465</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>6.0549139976501465</v>
       </c>
       <c r="C77" s="2">
-        <v>5.875948429107666</v>
+        <v>5.8782858848571777</v>
       </c>
       <c r="D77" s="2">
         <v>5.7410635948181152</v>
       </c>
       <c r="E77" s="2">
-        <v>5.7309894561767578</v>
+        <v>5.7331805229187012</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>5.9773707389831543</v>
       </c>
       <c r="C78" s="2">
-        <v>6.0119504928588867</v>
+        <v>6.016268253326416</v>
       </c>
       <c r="D78" s="2">
         <v>5.7750325202941895</v>
       </c>
       <c r="E78" s="2">
-        <v>5.7462711334228516</v>
+        <v>5.7482004165649414</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>5.4551982879638672</v>
       </c>
       <c r="C79" s="2">
-        <v>5.3493385314941406</v>
+        <v>5.3496832847595215</v>
       </c>
       <c r="D79" s="2">
         <v>5.8070149421691895</v>
       </c>
       <c r="E79" s="2">
-        <v>5.7697906494140625</v>
+        <v>5.7719120979309082</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>6.0383000373840332</v>
       </c>
       <c r="C80" s="2">
-        <v>6.0792078971862793</v>
+        <v>6.0836939811706543</v>
       </c>
       <c r="D80" s="2">
         <v>5.8738036155700684</v>
       </c>
       <c r="E80" s="2">
-        <v>5.7886080741882324</v>
+        <v>5.7906241416931152</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>5.2938985824584961</v>
       </c>
       <c r="C81" s="2">
-        <v>5.2290816307067871</v>
+        <v>5.228846549987793</v>
       </c>
       <c r="D81" s="2">
         <v>5.7924022674560547</v>
       </c>
       <c r="E81" s="2">
-        <v>5.7006330490112305</v>
+        <v>5.7029795646667481</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>5.6164107322692871</v>
       </c>
       <c r="C82" s="2">
-        <v>5.421104907989502</v>
+        <v>5.4232254028320313</v>
       </c>
       <c r="D82" s="2">
         <v>5.7079815864562988</v>
       </c>
       <c r="E82" s="2">
-        <v>5.6381912231445313</v>
+        <v>5.640434741973877</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>6.6169404983520508</v>
       </c>
       <c r="C83" s="2">
-        <v>6.5691428184509277</v>
+        <v>6.5733108520507813</v>
       </c>
       <c r="D83" s="2">
         <v>5.6915946006774902</v>
       </c>
       <c r="E83" s="2">
-        <v>5.6109061241149902</v>
+        <v>5.6124362945556641</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>6.1428580284118652</v>
       </c>
       <c r="C84" s="2">
-        <v>5.8768720626831055</v>
+        <v>5.8783869743347168</v>
       </c>
       <c r="D84" s="2">
         <v>5.6904311180114746</v>
       </c>
       <c r="E84" s="2">
-        <v>5.6047029495239258</v>
+        <v>5.6063232421875</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>4.93572998046875</v>
       </c>
       <c r="C85" s="2">
-        <v>4.8930525779724121</v>
+        <v>4.8951163291931152</v>
       </c>
       <c r="D85" s="2">
         <v>5.7829852104187012</v>
       </c>
       <c r="E85" s="2">
-        <v>5.6935677528381348</v>
+        <v>5.6949806213378906</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>5.2951278686523438</v>
       </c>
       <c r="C86" s="2">
-        <v>5.3139705657958984</v>
+        <v>5.3153791427612305</v>
       </c>
       <c r="D86" s="2">
         <v>5.822411060333252</v>
       </c>
       <c r="E86" s="2">
-        <v>5.737846851348877</v>
+        <v>5.739260196685791</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>5.8298854827880859</v>
       </c>
       <c r="C87" s="2">
-        <v>5.7663836479187012</v>
+        <v>5.7642827033996582</v>
       </c>
       <c r="D87" s="2">
         <v>5.9898324012756348</v>
       </c>
       <c r="E87" s="2">
-        <v>5.9252991676330567</v>
+        <v>5.9271044731140137</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>5.444730281829834</v>
       </c>
       <c r="C88" s="2">
-        <v>5.2935123443603516</v>
+        <v>5.2946677207946777</v>
       </c>
       <c r="D88" s="2">
         <v>6.0257463455200195</v>
       </c>
       <c r="E88" s="2">
-        <v>5.9616107940673828</v>
+        <v>5.9630451202392578</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>6.8712840080261231</v>
       </c>
       <c r="C89" s="2">
-        <v>6.8789892196655273</v>
+        <v>6.8816084861755371</v>
       </c>
       <c r="D89" s="2">
         <v>6.0522208213806152</v>
       </c>
       <c r="E89" s="2">
-        <v>6.0061535835266113</v>
+        <v>6.0072078704833984</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>5.6487321853637695</v>
       </c>
       <c r="C90" s="2">
-        <v>5.6275925636291504</v>
+        <v>5.6273627281188965</v>
       </c>
       <c r="D90" s="2">
         <v>6.0533194541931152</v>
       </c>
       <c r="E90" s="2">
-        <v>6.0115299224853516</v>
+        <v>6.012444019317627</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>7.1232032775878906</v>
       </c>
       <c r="C91" s="2">
-        <v>7.1081762313842774</v>
+        <v>7.113825798034668</v>
       </c>
       <c r="D91" s="2">
         <v>6.1775832176208496</v>
       </c>
       <c r="E91" s="2">
-        <v>6.1422691345214844</v>
+        <v>6.1429691314697266</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>6.9401650428771973</v>
       </c>
       <c r="C92" s="2">
-        <v>6.8959479331970215</v>
+        <v>6.8967766761779785</v>
       </c>
       <c r="D92" s="2">
         <v>6.179023265838623</v>
       </c>
       <c r="E92" s="2">
-        <v>6.1583390235900879</v>
+        <v>6.1595492362976074</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>6.3811273574829102</v>
       </c>
       <c r="C93" s="2">
-        <v>6.2777571678161621</v>
+        <v>6.2758498191833496</v>
       </c>
       <c r="D93" s="2">
         <v>6.2834682464599609</v>
       </c>
       <c r="E93" s="2">
-        <v>6.2615346908569336</v>
+        <v>6.263089656829834</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>4.9456191062927246</v>
       </c>
       <c r="C94" s="2">
-        <v>4.941439151763916</v>
+        <v>4.9422440528869629</v>
       </c>
       <c r="D94" s="2">
         <v>6.2054262161254883</v>
       </c>
       <c r="E94" s="2">
-        <v>6.1531033515930176</v>
+        <v>6.1549510955810547</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>6.4135041236877441</v>
       </c>
       <c r="C95" s="2">
-        <v>6.4906244277954102</v>
+        <v>6.4901041984558106</v>
       </c>
       <c r="D95" s="2">
         <v>6.1821441650390625</v>
       </c>
       <c r="E95" s="2">
-        <v>6.1368145942687988</v>
+        <v>6.1384096145629883</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>5.8428459167480469</v>
       </c>
       <c r="C96" s="2">
-        <v>5.9110107421875</v>
+        <v>5.9135026931762695</v>
       </c>
       <c r="D96" s="2">
         <v>6.131619930267334</v>
       </c>
       <c r="E96" s="2">
-        <v>6.0917487144470215</v>
+        <v>6.093073844909668</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>6.3847346305847168</v>
       </c>
       <c r="C97" s="2">
-        <v>6.2222752571105957</v>
+        <v>6.2265329360961914</v>
       </c>
       <c r="D97" s="2">
         <v>6.0031008720397949</v>
       </c>
       <c r="E97" s="2">
-        <v>5.9597353935241699</v>
+        <v>5.9603457450866699</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>6.1689062118530274</v>
       </c>
       <c r="C98" s="2">
-        <v>5.9031071662902832</v>
+        <v>5.9083609580993652</v>
       </c>
       <c r="D98" s="2">
         <v>5.9465999603271484</v>
       </c>
       <c r="E98" s="2">
-        <v>5.90277099609375</v>
+        <v>5.9036521911621094</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>5.4391937255859375</v>
       </c>
       <c r="C99" s="2">
-        <v>5.4809951782226563</v>
+        <v>5.4784884452819824</v>
       </c>
       <c r="D99" s="2">
         <v>6.055762767791748</v>
       </c>
       <c r="E99" s="2">
-        <v>6.0125036239624024</v>
+        <v>6.0130820274353027</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>6.6684823036193848</v>
       </c>
       <c r="C100" s="2">
-        <v>6.7025814056396484</v>
+        <v>6.705805778503418</v>
       </c>
       <c r="D100" s="2">
         <v>6.0038275718688965</v>
       </c>
       <c r="E100" s="2">
-        <v>5.9416236877441406</v>
+        <v>5.9424123764038086</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>5.7834963798522949</v>
       </c>
       <c r="C101" s="2">
-        <v>5.7078275680541992</v>
+        <v>5.7022247314453125</v>
       </c>
       <c r="D101" s="2">
         <v>6.0322632789611816</v>
       </c>
       <c r="E101" s="2">
-        <v>5.9713602066040039</v>
+        <v>5.9717345237731934</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>5.8726191520690918</v>
       </c>
       <c r="C102" s="2">
-        <v>5.7650766372680664</v>
+        <v>5.7656040191650391</v>
       </c>
       <c r="D102" s="2">
         <v>5.9267077445983887</v>
       </c>
       <c r="E102" s="2">
-        <v>5.8706107139587402</v>
+        <v>5.8707513809204102</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>5.9280815124511719</v>
       </c>
       <c r="C103" s="2">
-        <v>5.9290328025817871</v>
+        <v>5.9271130561828613</v>
       </c>
       <c r="D103" s="2">
         <v>5.9088234901428223</v>
       </c>
       <c r="E103" s="2">
-        <v>5.8762826919555664</v>
+        <v>5.8761258125305176</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>5.9460883140563965</v>
       </c>
       <c r="C104" s="2">
-        <v>5.8527069091796875</v>
+        <v>5.8540773391723633</v>
       </c>
       <c r="D104" s="2">
         <v>6.0314702987670899</v>
       </c>
       <c r="E104" s="2">
-        <v>5.9839177131652832</v>
+        <v>5.9834823608398438</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>6.0987663269042969</v>
       </c>
       <c r="C105" s="2">
-        <v>6.1786398887634277</v>
+        <v>6.1774048805236816</v>
       </c>
       <c r="D105" s="2">
         <v>6.0353260040283203</v>
       </c>
       <c r="E105" s="2">
-        <v>5.9766507148742676</v>
+        <v>5.9764928817749023</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>5.4347352981567383</v>
       </c>
       <c r="C106" s="2">
-        <v>5.3155307769775391</v>
+        <v>5.317683219909668</v>
       </c>
       <c r="D106" s="2">
         <v>6.2126164436340332</v>
       </c>
       <c r="E106" s="2">
-        <v>6.1354150772094727</v>
+        <v>6.1356830596923828</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>6.0079493522644043</v>
       </c>
       <c r="C107" s="2">
-        <v>5.9541540145874023</v>
+        <v>5.9567298889160156</v>
       </c>
       <c r="D107" s="2">
         <v>6.3129463195800781</v>
       </c>
       <c r="E107" s="2">
-        <v>6.2494778633117676</v>
+        <v>6.2493839263916016</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>6.5430121421813965</v>
       </c>
       <c r="C108" s="2">
-        <v>6.449709415435791</v>
+        <v>6.444699764251709</v>
       </c>
       <c r="D108" s="2">
         <v>6.4722661972045899</v>
       </c>
       <c r="E108" s="2">
-        <v>6.3943080902099609</v>
+        <v>6.3945798873901367</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>6.7031855583190918</v>
       </c>
       <c r="C109" s="2">
-        <v>6.6371793746948242</v>
+        <v>6.6428990364074707</v>
       </c>
       <c r="D109" s="2">
         <v>6.6922817230224609</v>
       </c>
       <c r="E109" s="2">
-        <v>6.6404910087585449</v>
+        <v>6.6408648490905762</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>7.3791117668151856</v>
       </c>
       <c r="C110" s="2">
-        <v>7.1367058753967285</v>
+        <v>7.1349368095397949</v>
       </c>
       <c r="D110" s="2">
         <v>6.9277563095092774</v>
       </c>
       <c r="E110" s="2">
-        <v>6.8586349487304688</v>
+        <v>6.8589568138122559</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>6.7755856513977051</v>
       </c>
       <c r="C111" s="2">
-        <v>6.7916436195373535</v>
+        <v>6.788912296295166</v>
       </c>
       <c r="D111" s="2">
         <v>7.1573972702026367</v>
       </c>
       <c r="E111" s="2">
-        <v>7.078946590423584</v>
+        <v>7.0788674354553223</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>7.3619632720947266</v>
       </c>
       <c r="C112" s="2">
-        <v>7.2325029373168945</v>
+        <v>7.2338776588439941</v>
       </c>
       <c r="D112" s="2">
         <v>7.2840347290039063</v>
       </c>
       <c r="E112" s="2">
-        <v>7.2183737754821777</v>
+        <v>7.2179431915283203</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>7.9262242317199707</v>
       </c>
       <c r="C113" s="2">
-        <v>8.0683536529541016</v>
+        <v>8.0706415176391602</v>
       </c>
       <c r="D113" s="2">
         <v>7.3420815467834473</v>
       </c>
       <c r="E113" s="2">
-        <v>7.2809901237487793</v>
+        <v>7.2813215255737305</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>8.2180414199829102</v>
       </c>
       <c r="C114" s="2">
-        <v>8.1419353485107422</v>
+        <v>8.1402320861816406</v>
       </c>
       <c r="D114" s="2">
         <v>7.3419795036315918</v>
       </c>
       <c r="E114" s="2">
-        <v>7.2607264518737793</v>
+        <v>7.2602386474609375</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>7.5015029907226563</v>
       </c>
       <c r="C115" s="2">
-        <v>7.2983355522155762</v>
+        <v>7.2968764305114746</v>
       </c>
       <c r="D115" s="2">
         <v>7.3138532638549805</v>
       </c>
       <c r="E115" s="2">
-        <v>7.2694849967956543</v>
+        <v>7.2696518898010254</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>7.1476860046386719</v>
       </c>
       <c r="C116" s="2">
-        <v>7.2089962959289551</v>
+        <v>7.2084131240844727</v>
       </c>
       <c r="D116" s="2">
         <v>7.4304714202880859</v>
       </c>
       <c r="E116" s="2">
-        <v>7.3901219367980957</v>
+        <v>7.3901543617248535</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>7.0654339790344238</v>
       </c>
       <c r="C117" s="2">
-        <v>7.0132603645324707</v>
+        <v>7.015106201171875</v>
       </c>
       <c r="D117" s="2">
         <v>7.4479308128356934</v>
       </c>
       <c r="E117" s="2">
-        <v>7.4216361045837402</v>
+        <v>7.4220733642578125</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>6.7022643089294434</v>
       </c>
       <c r="C118" s="2">
-        <v>6.454803466796875</v>
+        <v>6.4531521797180176</v>
       </c>
       <c r="D118" s="2">
         <v>7.5023574829101563</v>
       </c>
       <c r="E118" s="2">
-        <v>7.4508275985717773</v>
+        <v>7.4510064125061035</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>7.1259779930114746</v>
       </c>
       <c r="C119" s="2">
-        <v>7.2155351638793945</v>
+        <v>7.2196564674377442</v>
       </c>
       <c r="D119" s="2">
         <v>7.454254150390625</v>
       </c>
       <c r="E119" s="2">
-        <v>7.4119749069213867</v>
+        <v>7.4125709533691406</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>7.8251481056213379</v>
       </c>
       <c r="C120" s="2">
-        <v>7.8773751258850098</v>
+        <v>7.8734350204467774</v>
       </c>
       <c r="D120" s="2">
         <v>7.4977941513061524</v>
       </c>
       <c r="E120" s="2">
-        <v>7.470848560333252</v>
+        <v>7.471226692199707</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>7.5191001892089844</v>
       </c>
       <c r="C121" s="2">
-        <v>7.5161285400390625</v>
+        <v>7.5211477279663086</v>
       </c>
       <c r="D121" s="2">
         <v>7.5405926704406738</v>
       </c>
       <c r="E121" s="2">
-        <v>7.4902472496032715</v>
+        <v>7.4903984069824219</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>8.4160623550415039</v>
       </c>
       <c r="C122" s="2">
-        <v>8.3310766220092774</v>
+        <v>8.3310394287109375</v>
       </c>
       <c r="D122" s="2">
         <v>7.5500564575195313</v>
       </c>
       <c r="E122" s="2">
-        <v>7.4837751388549805</v>
+        <v>7.4830756187438965</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>7.7851109504699707</v>
       </c>
       <c r="C123" s="2">
-        <v>7.7922630310058594</v>
+        <v>7.7943100929260254</v>
       </c>
       <c r="D123" s="2">
         <v>7.5490827560424805</v>
       </c>
       <c r="E123" s="2">
-        <v>7.4996342658996582</v>
+        <v>7.4991059303283691</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>7.8933625221252442</v>
       </c>
       <c r="C124" s="2">
-        <v>7.8281989097595215</v>
+        <v>7.8247799873352051</v>
       </c>
       <c r="D124" s="2">
         <v>7.5225167274475098</v>
       </c>
       <c r="E124" s="2">
-        <v>7.4835433959960938</v>
+        <v>7.4828886985778809</v>
       </c>
     </row>
     <row r="125">
@@ -2157,13 +2157,13 @@
         <v>7.5328745841979981</v>
       </c>
       <c r="C125" s="2">
-        <v>7.3835835456848145</v>
+        <v>7.3809599876403809</v>
       </c>
       <c r="D125" s="2">
         <v>7.3106889724731445</v>
       </c>
       <c r="E125" s="2">
-        <v>7.2635469436645508</v>
+        <v>7.2629580497741699</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>7.1506085395812988</v>
       </c>
       <c r="C126" s="2">
-        <v>6.9550108909606934</v>
+        <v>6.9492015838623047</v>
       </c>
       <c r="D126" s="2">
         <v>7.2155447006225586</v>
       </c>
       <c r="E126" s="2">
-        <v>7.1527056694030762</v>
+        <v>7.1508870124816895</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>6.6934981346130371</v>
       </c>
       <c r="C127" s="2">
-        <v>6.597536563873291</v>
+        <v>6.5974221229553223</v>
       </c>
       <c r="D127" s="2">
-        <v>7.0654797554016113</v>
+        <v>7.0192604064941406</v>
       </c>
       <c r="E127" s="2">
-        <v>7.0054092407226563</v>
+        <v>6.9550881385803223</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>6.8868856430053711</v>
       </c>
       <c r="C128" s="2">
-        <v>7.0707187652587891</v>
+        <v>7.0737004280090332</v>
       </c>
       <c r="D128" s="2">
-        <v>6.9626755714416504</v>
+        <v>6.9047675132751465</v>
       </c>
       <c r="E128" s="2">
-        <v>6.8930015563964844</v>
+        <v>6.8603553771972656</v>
       </c>
     </row>
     <row r="129">
@@ -2225,13 +2225,13 @@
         <v>5.9186968803405762</v>
       </c>
       <c r="C129" s="2">
-        <v>5.897404670715332</v>
+        <v>5.8940625190734863</v>
       </c>
       <c r="D129" s="2">
-        <v>6.807560920715332</v>
+        <v>6.7313752174377442</v>
       </c>
       <c r="E129" s="2">
-        <v>6.7371354103088379</v>
+        <v>6.6897125244140625</v>
       </c>
     </row>
     <row r="130">
@@ -2242,86 +2242,150 @@
         <v>6.6628012657165527</v>
       </c>
       <c r="C130" s="2">
-        <v>6.518557071685791</v>
+        <v>6.5125088691711426</v>
       </c>
       <c r="D130" s="2">
-        <v>6.6624979972839356</v>
+        <v>6.7171320915222168</v>
       </c>
       <c r="E130" s="2">
-        <v>6.6078457832336426</v>
+        <v>6.6854047775268555</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
         <v>45200</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="B131" s="2">
+        <v>6.649505615234375</v>
+      </c>
+      <c r="C131" s="2">
+        <v>6.5688490867614746</v>
+      </c>
+      <c r="D131" s="2">
+        <v>6.6962227821350098</v>
+      </c>
+      <c r="E131" s="2">
+        <v>6.7001848220825195</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>45231</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="B132" s="2">
+        <v>6.7546758651733399</v>
+      </c>
+      <c r="C132" s="2">
+        <v>6.9417157173156738</v>
+      </c>
+      <c r="D132" s="2">
+        <v>6.7168769836425781</v>
+      </c>
+      <c r="E132" s="2">
+        <v>6.7351436614990234</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>45261</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="B133" s="2">
+        <v>6.3328285217285156</v>
+      </c>
+      <c r="C133" s="2">
+        <v>6.2889909744262695</v>
+      </c>
+      <c r="D133" s="2">
+        <v>6.6695919036865234</v>
+      </c>
+      <c r="E133" s="2">
+        <v>6.6462793350219727</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>45292</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="B134" s="2">
+        <v>7.4046893119812012</v>
+      </c>
+      <c r="C134" s="2">
+        <v>7.3421916961669922</v>
+      </c>
+      <c r="D134" s="2">
+        <v>6.7932062149047852</v>
+      </c>
+      <c r="E134" s="2">
+        <v>6.7679691314697266</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
         <v>45323</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="B135" s="2">
+        <v>6.9624247550964355</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7.0822234153747559</v>
+      </c>
+      <c r="D135" s="2">
+        <v>6.809506893157959</v>
+      </c>
+      <c r="E135" s="2">
+        <v>6.7999019622802734</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
         <v>45352</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="B136" s="2">
+        <v>6.8793830871582031</v>
+      </c>
+      <c r="C136" s="2">
+        <v>6.9120512008666992</v>
+      </c>
+      <c r="D136" s="2">
+        <v>6.8323640823364258</v>
+      </c>
+      <c r="E136" s="2">
+        <v>6.8329095840454102</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
         <v>45383</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="B137" s="2">
+        <v>6.4613208770751953</v>
+      </c>
+      <c r="C137" s="2">
+        <v>6.273921012878418</v>
+      </c>
+      <c r="D137" s="2">
+        <v>6.8453121185302734</v>
+      </c>
+      <c r="E137" s="2">
+        <v>6.8147749900817871</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
         <v>45413</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="B138" s="2">
+        <v>7.0312271118164063</v>
+      </c>
+      <c r="C138" s="2">
+        <v>6.9892716407775879</v>
+      </c>
+      <c r="D138" s="2">
+        <v>6.9478092193603516</v>
+      </c>
+      <c r="E138" s="2">
+        <v>6.9199318885803223</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
@@ -2350,6 +2414,60 @@
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_stdev_lt.xlsx
+++ b/SCE_stdev_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>4.5301918983459473</v>
       </c>
       <c r="C7" s="2">
-        <v>4.4030833244323731</v>
+        <v>4.4024534225463867</v>
       </c>
       <c r="D7" s="2">
         <v>5.3624835014343262</v>
       </c>
       <c r="E7" s="2">
-        <v>5.2314839363098145</v>
+        <v>5.2307429313659668</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>5.0946636199951172</v>
       </c>
       <c r="C8" s="2">
-        <v>4.9134650230407715</v>
+        <v>4.9111151695251465</v>
       </c>
       <c r="D8" s="2">
         <v>5.4869284629821777</v>
       </c>
       <c r="E8" s="2">
-        <v>5.425501823425293</v>
+        <v>5.425262451171875</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>5.6854672431945801</v>
       </c>
       <c r="C9" s="2">
-        <v>5.6068034172058106</v>
+        <v>5.6075968742370605</v>
       </c>
       <c r="D9" s="2">
         <v>5.4606180191040039</v>
       </c>
       <c r="E9" s="2">
-        <v>5.398902416229248</v>
+        <v>5.3988656997680664</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>5.9431967735290527</v>
       </c>
       <c r="C10" s="2">
-        <v>5.9217257499694824</v>
+        <v>5.9193997383117676</v>
       </c>
       <c r="D10" s="2">
         <v>5.5678534507751465</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5164384841918945</v>
+        <v>5.5165834426879883</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>5.5588984489440918</v>
       </c>
       <c r="C11" s="2">
-        <v>5.3123412132263184</v>
+        <v>5.3131504058837891</v>
       </c>
       <c r="D11" s="2">
         <v>5.6390500068664551</v>
       </c>
       <c r="E11" s="2">
-        <v>5.5739436149597168</v>
+        <v>5.5737957954406738</v>
       </c>
     </row>
     <row r="12">
@@ -233,16 +233,16 @@
         <v>41579</v>
       </c>
       <c r="B12" s="2">
-        <v>6.1091527938842774</v>
+        <v>6.1091527938842773</v>
       </c>
       <c r="C12" s="2">
-        <v>6.3955926895141602</v>
+        <v>6.3978590965270996</v>
       </c>
       <c r="D12" s="2">
         <v>5.8802719116210938</v>
       </c>
       <c r="E12" s="2">
-        <v>5.826446533203125</v>
+        <v>5.8260383605957031</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>5.3027558326721191</v>
       </c>
       <c r="C13" s="2">
-        <v>5.2393054962158203</v>
+        <v>5.2404861450195312</v>
       </c>
       <c r="D13" s="2">
         <v>6.1278777122497559</v>
       </c>
       <c r="E13" s="2">
-        <v>6.106755256652832</v>
+        <v>6.1069808006286621</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>6.3185024261474609</v>
       </c>
       <c r="C14" s="2">
-        <v>6.3391909599304199</v>
+        <v>6.3406047821044922</v>
       </c>
       <c r="D14" s="2">
         <v>6.1767430305480957</v>
       </c>
       <c r="E14" s="2">
-        <v>6.1628298759460449</v>
+        <v>6.1626725196838379</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>6.2086200714111328</v>
       </c>
       <c r="C15" s="2">
-        <v>6.0339856147766113</v>
+        <v>6.031496524810791</v>
       </c>
       <c r="D15" s="2">
         <v>6.1769070625305176</v>
       </c>
       <c r="E15" s="2">
-        <v>6.1684494018554688</v>
+        <v>6.1685690879821777</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>6.7011919021606445</v>
       </c>
       <c r="C16" s="2">
-        <v>6.6756100654602051</v>
+        <v>6.6726365089416504</v>
       </c>
       <c r="D16" s="2">
         <v>6.1405487060546875</v>
       </c>
       <c r="E16" s="2">
-        <v>6.1645336151123047</v>
+        <v>6.1645655632019043</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>7.323115348815918</v>
       </c>
       <c r="C17" s="2">
-        <v>7.4362421035766602</v>
+        <v>7.4395976066589355</v>
       </c>
       <c r="D17" s="2">
         <v>6.0390791893005371</v>
       </c>
       <c r="E17" s="2">
-        <v>6.0169949531555176</v>
+        <v>6.0168967247009277</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>6.1252527236938477</v>
       </c>
       <c r="C18" s="2">
-        <v>6.1114764213562012</v>
+        <v>6.108823299407959</v>
       </c>
       <c r="D18" s="2">
         <v>5.976264476776123</v>
       </c>
       <c r="E18" s="2">
-        <v>5.9138178825378418</v>
+        <v>5.9133305549621582</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>5.944674015045166</v>
       </c>
       <c r="C19" s="2">
-        <v>5.9722981452941895</v>
+        <v>5.9724678993225098</v>
       </c>
       <c r="D19" s="2">
         <v>5.8484854698181152</v>
       </c>
       <c r="E19" s="2">
-        <v>5.7806267738342285</v>
+        <v>5.7804498672485352</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>5.2316741943359375</v>
       </c>
       <c r="C20" s="2">
-        <v>5.2771005630493164</v>
+        <v>5.2771191596984863</v>
       </c>
       <c r="D20" s="2">
         <v>5.9609379768371582</v>
       </c>
       <c r="E20" s="2">
-        <v>5.9064121246337891</v>
+        <v>5.906806468963623</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>5.1959242820739746</v>
       </c>
       <c r="C21" s="2">
-        <v>5.067744255065918</v>
+        <v>5.0688385963439941</v>
       </c>
       <c r="D21" s="2">
         <v>5.8619036674499512</v>
       </c>
       <c r="E21" s="2">
-        <v>5.8029422760009766</v>
+        <v>5.8037114143371582</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>4.7374272346496582</v>
       </c>
       <c r="C22" s="2">
-        <v>4.3107123374938965</v>
+        <v>4.3083901405334473</v>
       </c>
       <c r="D22" s="2">
         <v>5.6456847190856934</v>
       </c>
       <c r="E22" s="2">
-        <v>5.5463466644287109</v>
+        <v>5.5467214584350586</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>5.1684908866882324</v>
       </c>
       <c r="C23" s="2">
-        <v>5.1404705047607422</v>
+        <v>5.1446776390075684</v>
       </c>
       <c r="D23" s="2">
-        <v>5.7407140731811524</v>
+        <v>5.7407140731811523</v>
       </c>
       <c r="E23" s="2">
-        <v>5.6430125236511231</v>
+        <v>5.6438984870910645</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>7.2206926345825195</v>
       </c>
       <c r="C24" s="2">
-        <v>7.1660542488098145</v>
+        <v>7.1687092781066895</v>
       </c>
       <c r="D24" s="2">
         <v>5.7031898498535156</v>
       </c>
       <c r="E24" s="2">
-        <v>5.5895137786865234</v>
+        <v>5.5903353691101074</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>5.8098797798156738</v>
       </c>
       <c r="C25" s="2">
-        <v>5.744382381439209</v>
+        <v>5.7447772026062012</v>
       </c>
       <c r="D25" s="2">
         <v>5.8179006576538086</v>
       </c>
       <c r="E25" s="2">
-        <v>5.7324910163879395</v>
+        <v>5.7331933975219727</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>5.3771452903747559</v>
       </c>
       <c r="C26" s="2">
-        <v>5.1268792152404785</v>
+        <v>5.1266913414001465</v>
       </c>
       <c r="D26" s="2">
         <v>5.9916996955871582</v>
       </c>
       <c r="E26" s="2">
-        <v>5.9177975654602051</v>
+        <v>5.918398380279541</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>6.9805169105529785</v>
       </c>
       <c r="C27" s="2">
-        <v>6.9814701080322266</v>
+        <v>6.9834160804748535</v>
       </c>
       <c r="D27" s="2">
         <v>6.1422090530395508</v>
       </c>
       <c r="E27" s="2">
-        <v>6.118037223815918</v>
+        <v>6.1192011833190918</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>5.606959342956543</v>
       </c>
       <c r="C28" s="2">
-        <v>5.4908089637756348</v>
+        <v>5.4904007911682129</v>
       </c>
       <c r="D28" s="2">
         <v>6.2517604827880859</v>
       </c>
       <c r="E28" s="2">
-        <v>6.224952220916748</v>
+        <v>6.225560188293457</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>6.2640681266784668</v>
       </c>
       <c r="C29" s="2">
-        <v>6.5638961791992188</v>
+        <v>6.562840461730957</v>
       </c>
       <c r="D29" s="2">
         <v>6.1346220970153809</v>
       </c>
       <c r="E29" s="2">
-        <v>6.1049575805664063</v>
+        <v>6.105095386505127</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>6.7601170539855957</v>
       </c>
       <c r="C30" s="2">
-        <v>6.7355022430419922</v>
+        <v>6.7356815338134766</v>
       </c>
       <c r="D30" s="2">
         <v>6.103238582611084</v>
       </c>
       <c r="E30" s="2">
-        <v>6.0705051422119141</v>
+        <v>6.0707693099975586</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>6.0920100212097168</v>
       </c>
       <c r="C31" s="2">
-        <v>6.1128726005554199</v>
+        <v>6.1156172752380371</v>
       </c>
       <c r="D31" s="2">
         <v>6.1025605201721191</v>
       </c>
       <c r="E31" s="2">
-        <v>6.0977029800415039</v>
+        <v>6.0982236862182617</v>
       </c>
     </row>
     <row r="32">
@@ -573,16 +573,16 @@
         <v>42186</v>
       </c>
       <c r="B32" s="2">
-        <v>6.1544570922851563</v>
+        <v>6.1544570922851562</v>
       </c>
       <c r="C32" s="2">
-        <v>6.1027045249938965</v>
+        <v>6.1019096374511719</v>
       </c>
       <c r="D32" s="2">
         <v>5.9501290321350098</v>
       </c>
       <c r="E32" s="2">
-        <v>5.9486961364746094</v>
+        <v>5.9490842819213867</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>6.1664457321166992</v>
       </c>
       <c r="C33" s="2">
-        <v>6.0861039161682129</v>
+        <v>6.0845227241516113</v>
       </c>
       <c r="D33" s="2">
-        <v>5.8441224098205567</v>
+        <v>5.8441224098205566</v>
       </c>
       <c r="E33" s="2">
-        <v>5.8487739562988281</v>
+        <v>5.8491835594177246</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>5.5274257659912109</v>
       </c>
       <c r="C34" s="2">
-        <v>5.4343080520629883</v>
+        <v>5.4358458518981934</v>
       </c>
       <c r="D34" s="2">
         <v>5.7594237327575684</v>
       </c>
       <c r="E34" s="2">
-        <v>5.7395672798156738</v>
+        <v>5.7398648262023926</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>5.3710432052612305</v>
       </c>
       <c r="C35" s="2">
-        <v>5.3716611862182617</v>
+        <v>5.3737783432006836</v>
       </c>
       <c r="D35" s="2">
         <v>5.549527645111084</v>
       </c>
       <c r="E35" s="2">
-        <v>5.5104227066040039</v>
+        <v>5.5110659599304199</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>5.6086359024047852</v>
       </c>
       <c r="C36" s="2">
-        <v>5.6404080390930176</v>
+        <v>5.6411619186401367</v>
       </c>
       <c r="D36" s="2">
         <v>5.6549420356750488</v>
       </c>
       <c r="E36" s="2">
-        <v>5.5764427185058594</v>
+        <v>5.5776700973510742</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>4.652897834777832</v>
       </c>
       <c r="C37" s="2">
-        <v>4.5915093421936035</v>
+        <v>4.5912928581237793</v>
       </c>
       <c r="D37" s="2">
         <v>5.640777587890625</v>
       </c>
       <c r="E37" s="2">
-        <v>5.5456457138061523</v>
+        <v>5.5467114448547363</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>5.5017795562744141</v>
       </c>
       <c r="C38" s="2">
-        <v>5.5810337066650391</v>
+        <v>5.5789752006530762</v>
       </c>
       <c r="D38" s="2">
         <v>5.5401191711425781</v>
       </c>
       <c r="E38" s="2">
-        <v>5.4364180564880371</v>
+        <v>5.4375548362731934</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>4.8710522651672363</v>
       </c>
       <c r="C39" s="2">
-        <v>4.6732034683227539</v>
+        <v>4.6764898300170898</v>
       </c>
       <c r="D39" s="2">
         <v>5.5602965354919434</v>
       </c>
       <c r="E39" s="2">
-        <v>5.4536051750183105</v>
+        <v>5.4551711082458496</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>7.0407414436340332</v>
       </c>
       <c r="C40" s="2">
-        <v>6.7070508003234863</v>
+        <v>6.7150564193725586</v>
       </c>
       <c r="D40" s="2">
         <v>5.5558099746704102</v>
       </c>
       <c r="E40" s="2">
-        <v>5.4323554039001465</v>
+        <v>5.4336004257202148</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>6.0269770622253418</v>
       </c>
       <c r="C41" s="2">
-        <v>5.8255343437194824</v>
+        <v>5.8232812881469727</v>
       </c>
       <c r="D41" s="2">
         <v>5.6252870559692383</v>
       </c>
       <c r="E41" s="2">
-        <v>5.4865379333496094</v>
+        <v>5.4879822731018066</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>5.260521411895752</v>
       </c>
       <c r="C42" s="2">
-        <v>5.1030550003051758</v>
+        <v>5.1021113395690918</v>
       </c>
       <c r="D42" s="2">
         <v>5.6961116790771484</v>
       </c>
       <c r="E42" s="2">
-        <v>5.5448741912841797</v>
+        <v>5.5464425086975098</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>5.7090187072753906</v>
       </c>
       <c r="C43" s="2">
-        <v>5.5889887809753418</v>
+        <v>5.5943927764892578</v>
       </c>
       <c r="D43" s="2">
         <v>5.7380242347717285</v>
       </c>
       <c r="E43" s="2">
-        <v>5.5729899406433106</v>
+        <v>5.574653148651123</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>5.3306670188903809</v>
       </c>
       <c r="C44" s="2">
-        <v>5.1804170608520508</v>
+        <v>5.1796412467956543</v>
       </c>
       <c r="D44" s="2">
         <v>5.889378547668457</v>
       </c>
       <c r="E44" s="2">
-        <v>5.7426834106445313</v>
+        <v>5.7439241409301758</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>6.2339272499084473</v>
       </c>
       <c r="C45" s="2">
-        <v>6.1280474662780762</v>
+        <v>6.1305985450744629</v>
       </c>
       <c r="D45" s="2">
         <v>5.8384127616882324</v>
       </c>
       <c r="E45" s="2">
-        <v>5.7367715835571289</v>
+        <v>5.7366476058959961</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>5.290318489074707</v>
       </c>
       <c r="C46" s="2">
-        <v>5.1165385246276856</v>
+        <v>5.117434024810791</v>
       </c>
       <c r="D46" s="2">
         <v>5.8637819290161133</v>
       </c>
       <c r="E46" s="2">
-        <v>5.7839632034301758</v>
+        <v>5.7840566635131836</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>5.8789925575256348</v>
       </c>
       <c r="C47" s="2">
-        <v>5.8340730667114258</v>
+        <v>5.8328738212585449</v>
       </c>
       <c r="D47" s="2">
         <v>6.0151686668395996</v>
       </c>
       <c r="E47" s="2">
-        <v>5.9621429443359375</v>
+        <v>5.9625492095947266</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>6.2332439422607422</v>
       </c>
       <c r="C48" s="2">
-        <v>6.200444221496582</v>
+        <v>6.1999282836914062</v>
       </c>
       <c r="D48" s="2">
         <v>6.1029829978942871</v>
       </c>
       <c r="E48" s="2">
-        <v>6.0700254440307617</v>
+        <v>6.0703544616699219</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>6.5820488929748535</v>
       </c>
       <c r="C49" s="2">
-        <v>6.6538467407226563</v>
+        <v>6.6495685577392578</v>
       </c>
       <c r="D49" s="2">
         <v>6.2419490814208984</v>
       </c>
       <c r="E49" s="2">
-        <v>6.2278532981872559</v>
+        <v>6.2282304763793945</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>6.2552971839904785</v>
       </c>
       <c r="C50" s="2">
-        <v>6.2502579689025879</v>
+        <v>6.249962329864502</v>
       </c>
       <c r="D50" s="2">
         <v>6.1711173057556152</v>
       </c>
       <c r="E50" s="2">
-        <v>6.1544294357299805</v>
+        <v>6.1541128158569336</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>6.6230058670043945</v>
       </c>
       <c r="C51" s="2">
-        <v>6.7066726684570313</v>
+        <v>6.7085433006286621</v>
       </c>
       <c r="D51" s="2">
         <v>6.2361111640930176</v>
       </c>
       <c r="E51" s="2">
-        <v>6.2448902130126953</v>
+        <v>6.2446403503417969</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>6.4993462562561035</v>
       </c>
       <c r="C52" s="2">
-        <v>6.5599331855773926</v>
+        <v>6.5646414756774902</v>
       </c>
       <c r="D52" s="2">
         <v>6.2097396850585938</v>
       </c>
       <c r="E52" s="2">
-        <v>6.2185344696044922</v>
+        <v>6.218411922454834</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>6.5813608169555664</v>
       </c>
       <c r="C53" s="2">
-        <v>6.6008648872375488</v>
+        <v>6.600522518157959</v>
       </c>
       <c r="D53" s="2">
         <v>6.1219987869262695</v>
       </c>
       <c r="E53" s="2">
-        <v>6.1281461715698242</v>
+        <v>6.1282405853271484</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>5.5964436531066895</v>
       </c>
       <c r="C54" s="2">
-        <v>5.4672346115112305</v>
+        <v>5.4635415077209473</v>
       </c>
       <c r="D54" s="2">
         <v>6.0554351806640625</v>
       </c>
       <c r="E54" s="2">
-        <v>6.0598702430725098</v>
+        <v>6.0604691505432129</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>5.8752603530883789</v>
       </c>
       <c r="C55" s="2">
-        <v>5.9306836128234863</v>
+        <v>5.9321813583374023</v>
       </c>
       <c r="D55" s="2">
         <v>6.0392885208129883</v>
       </c>
       <c r="E55" s="2">
-        <v>6.0355062484741211</v>
+        <v>6.0362644195556641</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>5.6416521072387695</v>
       </c>
       <c r="C56" s="2">
-        <v>5.5968713760375977</v>
+        <v>5.5968184471130371</v>
       </c>
       <c r="D56" s="2">
         <v>5.9759817123413086</v>
       </c>
       <c r="E56" s="2">
-        <v>5.9618968963623047</v>
+        <v>5.9624218940734863</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>5.4435720443725586</v>
       </c>
       <c r="C57" s="2">
-        <v>5.3869519233703613</v>
+        <v>5.3883862495422363</v>
       </c>
       <c r="D57" s="2">
         <v>5.9282083511352539</v>
       </c>
       <c r="E57" s="2">
-        <v>5.9057426452636719</v>
+        <v>5.9056916236877441</v>
       </c>
     </row>
     <row r="58">
@@ -1015,16 +1015,16 @@
         <v>42979</v>
       </c>
       <c r="B58" s="2">
-        <v>5.9829788208007813</v>
+        <v>5.9829788208007812</v>
       </c>
       <c r="C58" s="2">
-        <v>6.0393624305725098</v>
+        <v>6.0396242141723633</v>
       </c>
       <c r="D58" s="2">
         <v>5.8540778160095215</v>
       </c>
       <c r="E58" s="2">
-        <v>5.8235111236572266</v>
+        <v>5.8233718872070312</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>6.1099758148193359</v>
       </c>
       <c r="C59" s="2">
-        <v>6.0309820175170898</v>
+        <v>6.0321226119995117</v>
       </c>
       <c r="D59" s="2">
         <v>5.7844376564025879</v>
       </c>
       <c r="E59" s="2">
-        <v>5.7782459259033203</v>
+        <v>5.778843879699707</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>6.0532450675964355</v>
       </c>
       <c r="C60" s="2">
-        <v>6.0441861152648926</v>
+        <v>6.0439572334289551</v>
       </c>
       <c r="D60" s="2">
         <v>5.7119460105895996</v>
       </c>
       <c r="E60" s="2">
-        <v>5.6845364570617676</v>
+        <v>5.6851334571838379</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>6.0693883895874023</v>
       </c>
       <c r="C61" s="2">
-        <v>6.0545487403869629</v>
+        <v>6.0540685653686523</v>
       </c>
       <c r="D61" s="2">
         <v>5.862363338470459</v>
       </c>
       <c r="E61" s="2">
-        <v>5.8278603553771973</v>
+        <v>5.8281970024108887</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>5.9141836166381836</v>
       </c>
       <c r="C62" s="2">
-        <v>5.8607778549194336</v>
+        <v>5.8596482276916504</v>
       </c>
       <c r="D62" s="2">
         <v>5.8301868438720703</v>
       </c>
       <c r="E62" s="2">
-        <v>5.7873740196228027</v>
+        <v>5.7874112129211426</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>4.9696807861328125</v>
       </c>
       <c r="C63" s="2">
-        <v>5.059847354888916</v>
+        <v>5.0627889633178711</v>
       </c>
       <c r="D63" s="2">
-        <v>5.8445811271667481</v>
+        <v>5.844581127166748</v>
       </c>
       <c r="E63" s="2">
-        <v>5.7755570411682129</v>
+        <v>5.7755002975463867</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>5.2228355407714844</v>
       </c>
       <c r="C64" s="2">
-        <v>5.0872983932495117</v>
+        <v>5.0887856483459473</v>
       </c>
       <c r="D64" s="2">
         <v>5.7785630226135254</v>
       </c>
       <c r="E64" s="2">
-        <v>5.7180042266845703</v>
+        <v>5.7184247970581055</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>6.9954109191894531</v>
       </c>
       <c r="C65" s="2">
-        <v>6.8867874145507813</v>
+        <v>6.8843932151794434</v>
       </c>
       <c r="D65" s="2">
         <v>5.6650252342224121</v>
       </c>
       <c r="E65" s="2">
-        <v>5.5906052589416504</v>
+        <v>5.5911293029785156</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>5.1539840698242188</v>
       </c>
       <c r="C66" s="2">
-        <v>5.0225763320922852</v>
+        <v>5.0213103294372559</v>
       </c>
       <c r="D66" s="2">
-        <v>5.7393555641174317</v>
+        <v>5.7393555641174316</v>
       </c>
       <c r="E66" s="2">
-        <v>5.6485109329223633</v>
+        <v>5.6490917205810547</v>
       </c>
     </row>
     <row r="67">
@@ -1168,16 +1168,16 @@
         <v>43252</v>
       </c>
       <c r="B67" s="2">
-        <v>6.1125249862670899</v>
+        <v>6.1125249862670898</v>
       </c>
       <c r="C67" s="2">
-        <v>5.9330077171325684</v>
+        <v>5.9324278831481934</v>
       </c>
       <c r="D67" s="2">
         <v>5.6899991035461426</v>
       </c>
       <c r="E67" s="2">
-        <v>5.5965838432312012</v>
+        <v>5.5971951484680176</v>
       </c>
     </row>
     <row r="68">
@@ -1185,16 +1185,16 @@
         <v>43282</v>
       </c>
       <c r="B68" s="2">
-        <v>5.5158147811889649</v>
+        <v>5.5158147811889648</v>
       </c>
       <c r="C68" s="2">
-        <v>5.5130090713500977</v>
+        <v>5.5184421539306641</v>
       </c>
       <c r="D68" s="2">
-        <v>5.6835708618164063</v>
+        <v>5.6835708618164062</v>
       </c>
       <c r="E68" s="2">
-        <v>5.5667338371276856</v>
+        <v>5.5668368339538574</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>5.0314054489135742</v>
       </c>
       <c r="C69" s="2">
-        <v>4.8975963592529297</v>
+        <v>4.8982973098754883</v>
       </c>
       <c r="D69" s="2">
         <v>5.6933326721191406</v>
       </c>
       <c r="E69" s="2">
-        <v>5.5890393257141113</v>
+        <v>5.5889148712158203</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>6.7383604049682617</v>
       </c>
       <c r="C70" s="2">
-        <v>6.5756988525390625</v>
+        <v>6.5757331848144531</v>
       </c>
       <c r="D70" s="2">
         <v>5.6192975044250488</v>
       </c>
       <c r="E70" s="2">
-        <v>5.5304965972900391</v>
+        <v>5.5303363800048828</v>
       </c>
     </row>
     <row r="71">
@@ -1236,16 +1236,16 @@
         <v>43374</v>
       </c>
       <c r="B71" s="2">
-        <v>5.4699769020080567</v>
+        <v>5.4699769020080566</v>
       </c>
       <c r="C71" s="2">
-        <v>5.3934311866760254</v>
+        <v>5.3925786018371582</v>
       </c>
       <c r="D71" s="2">
         <v>5.6623845100402832</v>
       </c>
       <c r="E71" s="2">
-        <v>5.6068744659423828</v>
+        <v>5.6068077087402344</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>4.9118266105651855</v>
       </c>
       <c r="C72" s="2">
-        <v>4.7911992073059082</v>
+        <v>4.7895646095275879</v>
       </c>
       <c r="D72" s="2">
         <v>5.6130304336547852</v>
       </c>
       <c r="E72" s="2">
-        <v>5.579197883605957</v>
+        <v>5.5791335105895996</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>5.3106899261474609</v>
       </c>
       <c r="C73" s="2">
-        <v>5.2880468368530273</v>
+        <v>5.2874870300292969</v>
       </c>
       <c r="D73" s="2">
         <v>5.6729302406311035</v>
       </c>
       <c r="E73" s="2">
-        <v>5.619783878326416</v>
+        <v>5.6190929412841797</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>6.3290963172912598</v>
       </c>
       <c r="C74" s="2">
-        <v>6.3599028587341309</v>
+        <v>6.357184886932373</v>
       </c>
       <c r="D74" s="2">
         <v>5.7780375480651855</v>
       </c>
       <c r="E74" s="2">
-        <v>5.7440810203552246</v>
+        <v>5.7434682846069336</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>5.5417633056640625</v>
       </c>
       <c r="C75" s="2">
-        <v>5.7099790573120117</v>
+        <v>5.7095522880554199</v>
       </c>
       <c r="D75" s="2">
         <v>5.6354641914367676</v>
       </c>
       <c r="E75" s="2">
-        <v>5.6078572273254395</v>
+        <v>5.6074094772338867</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>5.668339729309082</v>
       </c>
       <c r="C76" s="2">
-        <v>5.6839165687561035</v>
+        <v>5.6833610534667969</v>
       </c>
       <c r="D76" s="2">
         <v>5.698610782623291</v>
       </c>
       <c r="E76" s="2">
-        <v>5.6845526695251465</v>
+        <v>5.6843938827514648</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>6.0549139976501465</v>
       </c>
       <c r="C77" s="2">
-        <v>5.8782858848571777</v>
+        <v>5.878077507019043</v>
       </c>
       <c r="D77" s="2">
         <v>5.7410635948181152</v>
       </c>
       <c r="E77" s="2">
-        <v>5.7331805229187012</v>
+        <v>5.7328572273254395</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>5.9773707389831543</v>
       </c>
       <c r="C78" s="2">
-        <v>6.016268253326416</v>
+        <v>6.0176758766174316</v>
       </c>
       <c r="D78" s="2">
         <v>5.7750325202941895</v>
       </c>
       <c r="E78" s="2">
-        <v>5.7482004165649414</v>
+        <v>5.7481002807617188</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>5.4551982879638672</v>
       </c>
       <c r="C79" s="2">
-        <v>5.3496832847595215</v>
+        <v>5.3512039184570312</v>
       </c>
       <c r="D79" s="2">
         <v>5.8070149421691895</v>
       </c>
       <c r="E79" s="2">
-        <v>5.7719120979309082</v>
+        <v>5.7726187705993652</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>6.0383000373840332</v>
       </c>
       <c r="C80" s="2">
-        <v>6.0836939811706543</v>
+        <v>6.0854396820068359</v>
       </c>
       <c r="D80" s="2">
         <v>5.8738036155700684</v>
       </c>
       <c r="E80" s="2">
-        <v>5.7906241416931152</v>
+        <v>5.7914280891418457</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>5.2938985824584961</v>
       </c>
       <c r="C81" s="2">
-        <v>5.228846549987793</v>
+        <v>5.2257328033447266</v>
       </c>
       <c r="D81" s="2">
         <v>5.7924022674560547</v>
       </c>
       <c r="E81" s="2">
-        <v>5.7029795646667481</v>
+        <v>5.7044878005981445</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>5.6164107322692871</v>
       </c>
       <c r="C82" s="2">
-        <v>5.4232254028320313</v>
+        <v>5.4246745109558105</v>
       </c>
       <c r="D82" s="2">
         <v>5.7079815864562988</v>
       </c>
       <c r="E82" s="2">
-        <v>5.640434741973877</v>
+        <v>5.6420331001281738</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>6.6169404983520508</v>
       </c>
       <c r="C83" s="2">
-        <v>6.5733108520507813</v>
+        <v>6.5778522491455078</v>
       </c>
       <c r="D83" s="2">
         <v>5.6915946006774902</v>
       </c>
       <c r="E83" s="2">
-        <v>5.6124362945556641</v>
+        <v>5.6135358810424805</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>6.1428580284118652</v>
       </c>
       <c r="C84" s="2">
-        <v>5.8783869743347168</v>
+        <v>5.8788332939147949</v>
       </c>
       <c r="D84" s="2">
         <v>5.6904311180114746</v>
       </c>
       <c r="E84" s="2">
-        <v>5.6063232421875</v>
+        <v>5.6071000099182129</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>4.93572998046875</v>
       </c>
       <c r="C85" s="2">
-        <v>4.8951163291931152</v>
+        <v>4.9008994102478027</v>
       </c>
       <c r="D85" s="2">
         <v>5.7829852104187012</v>
       </c>
       <c r="E85" s="2">
-        <v>5.6949806213378906</v>
+        <v>5.6960062980651855</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>5.2951278686523438</v>
       </c>
       <c r="C86" s="2">
-        <v>5.3153791427612305</v>
+        <v>5.3159856796264648</v>
       </c>
       <c r="D86" s="2">
         <v>5.822411060333252</v>
       </c>
       <c r="E86" s="2">
-        <v>5.739260196685791</v>
+        <v>5.7405648231506348</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>5.8298854827880859</v>
       </c>
       <c r="C87" s="2">
-        <v>5.7642827033996582</v>
+        <v>5.7612018585205078</v>
       </c>
       <c r="D87" s="2">
         <v>5.9898324012756348</v>
       </c>
       <c r="E87" s="2">
-        <v>5.9271044731140137</v>
+        <v>5.928290843963623</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>5.444730281829834</v>
       </c>
       <c r="C88" s="2">
-        <v>5.2946677207946777</v>
+        <v>5.293278694152832</v>
       </c>
       <c r="D88" s="2">
         <v>6.0257463455200195</v>
       </c>
       <c r="E88" s="2">
-        <v>5.9630451202392578</v>
+        <v>5.9640440940856934</v>
       </c>
     </row>
     <row r="89">
@@ -1542,16 +1542,16 @@
         <v>43922</v>
       </c>
       <c r="B89" s="2">
-        <v>6.8712840080261231</v>
+        <v>6.871284008026123</v>
       </c>
       <c r="C89" s="2">
-        <v>6.8816084861755371</v>
+        <v>6.8855981826782227</v>
       </c>
       <c r="D89" s="2">
         <v>6.0522208213806152</v>
       </c>
       <c r="E89" s="2">
-        <v>6.0072078704833984</v>
+        <v>6.0079507827758789</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>5.6487321853637695</v>
       </c>
       <c r="C90" s="2">
-        <v>5.6273627281188965</v>
+        <v>5.6267585754394531</v>
       </c>
       <c r="D90" s="2">
         <v>6.0533194541931152</v>
       </c>
       <c r="E90" s="2">
-        <v>6.012444019317627</v>
+        <v>6.0130624771118164</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>7.1232032775878906</v>
       </c>
       <c r="C91" s="2">
-        <v>7.113825798034668</v>
+        <v>7.1142115592956543</v>
       </c>
       <c r="D91" s="2">
         <v>6.1775832176208496</v>
       </c>
       <c r="E91" s="2">
-        <v>6.1429691314697266</v>
+        <v>6.1433825492858887</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>6.9401650428771973</v>
       </c>
       <c r="C92" s="2">
-        <v>6.8967766761779785</v>
+        <v>6.899630069732666</v>
       </c>
       <c r="D92" s="2">
         <v>6.179023265838623</v>
       </c>
       <c r="E92" s="2">
-        <v>6.1595492362976074</v>
+        <v>6.1603803634643555</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>6.3811273574829102</v>
       </c>
       <c r="C93" s="2">
-        <v>6.2758498191833496</v>
+        <v>6.2739911079406738</v>
       </c>
       <c r="D93" s="2">
         <v>6.2834682464599609</v>
       </c>
       <c r="E93" s="2">
-        <v>6.263089656829834</v>
+        <v>6.2642951011657715</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>4.9456191062927246</v>
       </c>
       <c r="C94" s="2">
-        <v>4.9422440528869629</v>
+        <v>4.9469070434570312</v>
       </c>
       <c r="D94" s="2">
         <v>6.2054262161254883</v>
       </c>
       <c r="E94" s="2">
-        <v>6.1549510955810547</v>
+        <v>6.1558361053466797</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>6.4135041236877441</v>
       </c>
       <c r="C95" s="2">
-        <v>6.4901041984558106</v>
+        <v>6.4888668060302734</v>
       </c>
       <c r="D95" s="2">
         <v>6.1821441650390625</v>
       </c>
       <c r="E95" s="2">
-        <v>6.1384096145629883</v>
+        <v>6.1391654014587402</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>5.8428459167480469</v>
       </c>
       <c r="C96" s="2">
-        <v>5.9135026931762695</v>
+        <v>5.9141802787780762</v>
       </c>
       <c r="D96" s="2">
         <v>6.131619930267334</v>
       </c>
       <c r="E96" s="2">
-        <v>6.093073844909668</v>
+        <v>6.0939216613769531</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>6.3847346305847168</v>
       </c>
       <c r="C97" s="2">
-        <v>6.2265329360961914</v>
+        <v>6.2285141944885254</v>
       </c>
       <c r="D97" s="2">
         <v>6.0031008720397949</v>
       </c>
       <c r="E97" s="2">
-        <v>5.9603457450866699</v>
+        <v>5.9607758522033691</v>
       </c>
     </row>
     <row r="98">
@@ -1695,16 +1695,16 @@
         <v>44197</v>
       </c>
       <c r="B98" s="2">
-        <v>6.1689062118530274</v>
+        <v>6.1689062118530273</v>
       </c>
       <c r="C98" s="2">
-        <v>5.9083609580993652</v>
+        <v>5.9094653129577637</v>
       </c>
       <c r="D98" s="2">
         <v>5.9465999603271484</v>
       </c>
       <c r="E98" s="2">
-        <v>5.9036521911621094</v>
+        <v>5.90411376953125</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>5.4391937255859375</v>
       </c>
       <c r="C99" s="2">
-        <v>5.4784884452819824</v>
+        <v>5.4767217636108398</v>
       </c>
       <c r="D99" s="2">
         <v>6.055762767791748</v>
       </c>
       <c r="E99" s="2">
-        <v>6.0130820274353027</v>
+        <v>6.0129880905151367</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>6.6684823036193848</v>
       </c>
       <c r="C100" s="2">
-        <v>6.705805778503418</v>
+        <v>6.7070164680480957</v>
       </c>
       <c r="D100" s="2">
         <v>6.0038275718688965</v>
       </c>
       <c r="E100" s="2">
-        <v>5.9424123764038086</v>
+        <v>5.9423069953918457</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>5.7834963798522949</v>
       </c>
       <c r="C101" s="2">
-        <v>5.7022247314453125</v>
+        <v>5.7013177871704102</v>
       </c>
       <c r="D101" s="2">
         <v>6.0322632789611816</v>
       </c>
       <c r="E101" s="2">
-        <v>5.9717345237731934</v>
+        <v>5.9715290069580078</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>5.8726191520690918</v>
       </c>
       <c r="C102" s="2">
-        <v>5.7656040191650391</v>
+        <v>5.7640361785888672</v>
       </c>
       <c r="D102" s="2">
         <v>5.9267077445983887</v>
       </c>
       <c r="E102" s="2">
-        <v>5.8707513809204102</v>
+        <v>5.8702044486999512</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>5.9280815124511719</v>
       </c>
       <c r="C103" s="2">
-        <v>5.9271130561828613</v>
+        <v>5.9267754554748535</v>
       </c>
       <c r="D103" s="2">
         <v>5.9088234901428223</v>
       </c>
       <c r="E103" s="2">
-        <v>5.8761258125305176</v>
+        <v>5.8756704330444336</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>5.9460883140563965</v>
       </c>
       <c r="C104" s="2">
-        <v>5.8540773391723633</v>
+        <v>5.8527336120605469</v>
       </c>
       <c r="D104" s="2">
-        <v>6.0314702987670899</v>
+        <v>6.0314702987670898</v>
       </c>
       <c r="E104" s="2">
-        <v>5.9834823608398438</v>
+        <v>5.983281135559082</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>6.0987663269042969</v>
       </c>
       <c r="C105" s="2">
-        <v>6.1774048805236816</v>
+        <v>6.1771793365478516</v>
       </c>
       <c r="D105" s="2">
         <v>6.0353260040283203</v>
       </c>
       <c r="E105" s="2">
-        <v>5.9764928817749023</v>
+        <v>5.9766225814819336</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>5.4347352981567383</v>
       </c>
       <c r="C106" s="2">
-        <v>5.317683219909668</v>
+        <v>5.3165922164916992</v>
       </c>
       <c r="D106" s="2">
         <v>6.2126164436340332</v>
       </c>
       <c r="E106" s="2">
-        <v>6.1356830596923828</v>
+        <v>6.1356234550476074</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>6.0079493522644043</v>
       </c>
       <c r="C107" s="2">
-        <v>5.9567298889160156</v>
+        <v>5.9586601257324219</v>
       </c>
       <c r="D107" s="2">
         <v>6.3129463195800781</v>
       </c>
       <c r="E107" s="2">
-        <v>6.2493839263916016</v>
+        <v>6.2491755485534668</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>6.5430121421813965</v>
       </c>
       <c r="C108" s="2">
-        <v>6.444699764251709</v>
+        <v>6.4452195167541504</v>
       </c>
       <c r="D108" s="2">
-        <v>6.4722661972045899</v>
+        <v>6.4722661972045898</v>
       </c>
       <c r="E108" s="2">
-        <v>6.3945798873901367</v>
+        <v>6.3943452835083008</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>6.7031855583190918</v>
       </c>
       <c r="C109" s="2">
-        <v>6.6428990364074707</v>
+        <v>6.6470880508422852</v>
       </c>
       <c r="D109" s="2">
         <v>6.6922817230224609</v>
       </c>
       <c r="E109" s="2">
-        <v>6.6408648490905762</v>
+        <v>6.6405415534973145</v>
       </c>
     </row>
     <row r="110">
@@ -1899,16 +1899,16 @@
         <v>44562</v>
       </c>
       <c r="B110" s="2">
-        <v>7.3791117668151856</v>
+        <v>7.3791117668151855</v>
       </c>
       <c r="C110" s="2">
-        <v>7.1349368095397949</v>
+        <v>7.1323261260986328</v>
       </c>
       <c r="D110" s="2">
-        <v>6.9277563095092774</v>
+        <v>6.9277563095092773</v>
       </c>
       <c r="E110" s="2">
-        <v>6.8589568138122559</v>
+        <v>6.858428955078125</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>6.7755856513977051</v>
       </c>
       <c r="C111" s="2">
-        <v>6.788912296295166</v>
+        <v>6.7860074043273926</v>
       </c>
       <c r="D111" s="2">
         <v>7.1573972702026367</v>
       </c>
       <c r="E111" s="2">
-        <v>7.0788674354553223</v>
+        <v>7.078284740447998</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>7.3619632720947266</v>
       </c>
       <c r="C112" s="2">
-        <v>7.2338776588439941</v>
+        <v>7.2333011627197266</v>
       </c>
       <c r="D112" s="2">
-        <v>7.2840347290039063</v>
+        <v>7.2840347290039062</v>
       </c>
       <c r="E112" s="2">
-        <v>7.2179431915283203</v>
+        <v>7.2168540954589844</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>7.9262242317199707</v>
       </c>
       <c r="C113" s="2">
-        <v>8.0706415176391602</v>
+        <v>8.0684986114501953</v>
       </c>
       <c r="D113" s="2">
         <v>7.3420815467834473</v>
       </c>
       <c r="E113" s="2">
-        <v>7.2813215255737305</v>
+        <v>7.2800612449645996</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>8.2180414199829102</v>
       </c>
       <c r="C114" s="2">
-        <v>8.1402320861816406</v>
+        <v>8.1381664276123047</v>
       </c>
       <c r="D114" s="2">
         <v>7.3419795036315918</v>
       </c>
       <c r="E114" s="2">
-        <v>7.2602386474609375</v>
+        <v>7.2581310272216797</v>
       </c>
     </row>
     <row r="115">
@@ -1984,16 +1984,16 @@
         <v>44713</v>
       </c>
       <c r="B115" s="2">
-        <v>7.5015029907226563</v>
+        <v>7.5015029907226562</v>
       </c>
       <c r="C115" s="2">
-        <v>7.2968764305114746</v>
+        <v>7.2952933311462402</v>
       </c>
       <c r="D115" s="2">
         <v>7.3138532638549805</v>
       </c>
       <c r="E115" s="2">
-        <v>7.2696518898010254</v>
+        <v>7.2677741050720215</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>7.1476860046386719</v>
       </c>
       <c r="C116" s="2">
-        <v>7.2084131240844727</v>
+        <v>7.205787181854248</v>
       </c>
       <c r="D116" s="2">
         <v>7.4304714202880859</v>
       </c>
       <c r="E116" s="2">
-        <v>7.3901543617248535</v>
+        <v>7.3884553909301758</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>7.0654339790344238</v>
       </c>
       <c r="C117" s="2">
-        <v>7.015106201171875</v>
+        <v>7.0140833854675293</v>
       </c>
       <c r="D117" s="2">
         <v>7.4479308128356934</v>
       </c>
       <c r="E117" s="2">
-        <v>7.4220733642578125</v>
+        <v>7.4199295043945312</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>6.7022643089294434</v>
       </c>
       <c r="C118" s="2">
-        <v>6.4531521797180176</v>
+        <v>6.4497160911560059</v>
       </c>
       <c r="D118" s="2">
-        <v>7.5023574829101563</v>
+        <v>7.5023574829101562</v>
       </c>
       <c r="E118" s="2">
-        <v>7.4510064125061035</v>
+        <v>7.4489741325378418</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>7.1259779930114746</v>
       </c>
       <c r="C119" s="2">
-        <v>7.2196564674377442</v>
+        <v>7.2191123962402344</v>
       </c>
       <c r="D119" s="2">
         <v>7.454254150390625</v>
       </c>
       <c r="E119" s="2">
-        <v>7.4125709533691406</v>
+        <v>7.4104900360107422</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>7.8251481056213379</v>
       </c>
       <c r="C120" s="2">
-        <v>7.8734350204467774</v>
+        <v>7.8721408843994141</v>
       </c>
       <c r="D120" s="2">
-        <v>7.4977941513061524</v>
+        <v>7.4977941513061523</v>
       </c>
       <c r="E120" s="2">
-        <v>7.471226692199707</v>
+        <v>7.4688215255737305</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>7.5191001892089844</v>
       </c>
       <c r="C121" s="2">
-        <v>7.5211477279663086</v>
+        <v>7.5165657997131348</v>
       </c>
       <c r="D121" s="2">
         <v>7.5405926704406738</v>
       </c>
       <c r="E121" s="2">
-        <v>7.4903984069824219</v>
+        <v>7.4883313179016113</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>8.4160623550415039</v>
       </c>
       <c r="C122" s="2">
-        <v>8.3310394287109375</v>
+        <v>8.3299026489257812</v>
       </c>
       <c r="D122" s="2">
-        <v>7.5500564575195313</v>
+        <v>7.5500564575195312</v>
       </c>
       <c r="E122" s="2">
-        <v>7.4830756187438965</v>
+        <v>7.4810442924499512</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>7.7851109504699707</v>
       </c>
       <c r="C123" s="2">
-        <v>7.7943100929260254</v>
+        <v>7.7918095588684082</v>
       </c>
       <c r="D123" s="2">
         <v>7.5490827560424805</v>
       </c>
       <c r="E123" s="2">
-        <v>7.4991059303283691</v>
+        <v>7.4972519874572754</v>
       </c>
     </row>
     <row r="124">
@@ -2137,16 +2137,16 @@
         <v>44986</v>
       </c>
       <c r="B124" s="2">
-        <v>7.8933625221252442</v>
+        <v>7.8933625221252441</v>
       </c>
       <c r="C124" s="2">
-        <v>7.8247799873352051</v>
+        <v>7.8202738761901855</v>
       </c>
       <c r="D124" s="2">
         <v>7.5225167274475098</v>
       </c>
       <c r="E124" s="2">
-        <v>7.4828886985778809</v>
+        <v>7.4814629554748535</v>
       </c>
     </row>
     <row r="125">
@@ -2154,16 +2154,16 @@
         <v>45017</v>
       </c>
       <c r="B125" s="2">
-        <v>7.5328745841979981</v>
+        <v>7.532874584197998</v>
       </c>
       <c r="C125" s="2">
-        <v>7.3809599876403809</v>
+        <v>7.3813762664794922</v>
       </c>
       <c r="D125" s="2">
         <v>7.3106889724731445</v>
       </c>
       <c r="E125" s="2">
-        <v>7.2629580497741699</v>
+        <v>7.2616367340087891</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>7.1506085395812988</v>
       </c>
       <c r="C126" s="2">
-        <v>6.9492015838623047</v>
+        <v>6.9485001564025879</v>
       </c>
       <c r="D126" s="2">
         <v>7.2155447006225586</v>
       </c>
       <c r="E126" s="2">
-        <v>7.1508870124816895</v>
+        <v>7.1496925354003906</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>6.6934981346130371</v>
       </c>
       <c r="C127" s="2">
-        <v>6.5974221229553223</v>
+        <v>6.5955867767333984</v>
       </c>
       <c r="D127" s="2">
         <v>7.0192604064941406</v>
       </c>
       <c r="E127" s="2">
-        <v>6.9550881385803223</v>
+        <v>6.953916072845459</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>6.8868856430053711</v>
       </c>
       <c r="C128" s="2">
-        <v>7.0737004280090332</v>
+        <v>7.0770106315612793</v>
       </c>
       <c r="D128" s="2">
         <v>6.9047675132751465</v>
       </c>
       <c r="E128" s="2">
-        <v>6.8603553771972656</v>
+        <v>6.8599748611450195</v>
       </c>
     </row>
     <row r="129">
@@ -2225,13 +2225,13 @@
         <v>5.9186968803405762</v>
       </c>
       <c r="C129" s="2">
-        <v>5.8940625190734863</v>
+        <v>5.893704891204834</v>
       </c>
       <c r="D129" s="2">
-        <v>6.7313752174377442</v>
+        <v>6.7313752174377441</v>
       </c>
       <c r="E129" s="2">
-        <v>6.6897125244140625</v>
+        <v>6.6899433135986328</v>
       </c>
     </row>
     <row r="130">
@@ -2242,13 +2242,13 @@
         <v>6.6628012657165527</v>
       </c>
       <c r="C130" s="2">
-        <v>6.5125088691711426</v>
+        <v>6.5090689659118652</v>
       </c>
       <c r="D130" s="2">
         <v>6.7171320915222168</v>
       </c>
       <c r="E130" s="2">
-        <v>6.6854047775268555</v>
+        <v>6.6849656105041504</v>
       </c>
     </row>
     <row r="131">
@@ -2259,13 +2259,13 @@
         <v>6.649505615234375</v>
       </c>
       <c r="C131" s="2">
-        <v>6.5688490867614746</v>
+        <v>6.5679135322570801</v>
       </c>
       <c r="D131" s="2">
         <v>6.6962227821350098</v>
       </c>
       <c r="E131" s="2">
-        <v>6.7001848220825195</v>
+        <v>6.6993699073791504</v>
       </c>
     </row>
     <row r="132">
@@ -2273,16 +2273,16 @@
         <v>45231</v>
       </c>
       <c r="B132" s="2">
-        <v>6.7546758651733399</v>
+        <v>6.7546758651733398</v>
       </c>
       <c r="C132" s="2">
-        <v>6.9417157173156738</v>
+        <v>6.9463405609130859</v>
       </c>
       <c r="D132" s="2">
         <v>6.7168769836425781</v>
       </c>
       <c r="E132" s="2">
-        <v>6.7351436614990234</v>
+        <v>6.7345385551452637</v>
       </c>
     </row>
     <row r="133">
@@ -2293,13 +2293,13 @@
         <v>6.3328285217285156</v>
       </c>
       <c r="C133" s="2">
-        <v>6.2889909744262695</v>
+        <v>6.2899875640869141</v>
       </c>
       <c r="D133" s="2">
         <v>6.6695919036865234</v>
       </c>
       <c r="E133" s="2">
-        <v>6.6462793350219727</v>
+        <v>6.6449704170227051</v>
       </c>
     </row>
     <row r="134">
@@ -2310,13 +2310,13 @@
         <v>7.4046893119812012</v>
       </c>
       <c r="C134" s="2">
-        <v>7.3421916961669922</v>
+        <v>7.3365778923034668</v>
       </c>
       <c r="D134" s="2">
         <v>6.7932062149047852</v>
       </c>
       <c r="E134" s="2">
-        <v>6.7679691314697266</v>
+        <v>6.7672710418701172</v>
       </c>
     </row>
     <row r="135">
@@ -2327,13 +2327,13 @@
         <v>6.9624247550964355</v>
       </c>
       <c r="C135" s="2">
-        <v>7.0822234153747559</v>
+        <v>7.0781373977661133</v>
       </c>
       <c r="D135" s="2">
-        <v>6.809506893157959</v>
+        <v>6.7545914649963379</v>
       </c>
       <c r="E135" s="2">
-        <v>6.7999019622802734</v>
+        <v>6.7322287559509277</v>
       </c>
     </row>
     <row r="136">
@@ -2344,13 +2344,13 @@
         <v>6.8793830871582031</v>
       </c>
       <c r="C136" s="2">
-        <v>6.9120512008666992</v>
+        <v>6.9121060371398926</v>
       </c>
       <c r="D136" s="2">
-        <v>6.8323640823364258</v>
+        <v>6.7116742134094238</v>
       </c>
       <c r="E136" s="2">
-        <v>6.8329095840454102</v>
+        <v>6.6964583396911621</v>
       </c>
     </row>
     <row r="137">
@@ -2361,13 +2361,13 @@
         <v>6.4613208770751953</v>
       </c>
       <c r="C137" s="2">
-        <v>6.273921012878418</v>
+        <v>6.2708978652954102</v>
       </c>
       <c r="D137" s="2">
-        <v>6.8453121185302734</v>
+        <v>6.706298828125</v>
       </c>
       <c r="E137" s="2">
-        <v>6.8147749900817871</v>
+        <v>6.6652231216430664</v>
       </c>
     </row>
     <row r="138">
@@ -2375,35 +2375,51 @@
         <v>45413</v>
       </c>
       <c r="B138" s="2">
-        <v>7.0312271118164063</v>
+        <v>7.0312271118164062</v>
       </c>
       <c r="C138" s="2">
-        <v>6.9892716407775879</v>
+        <v>6.9944100379943848</v>
       </c>
       <c r="D138" s="2">
-        <v>6.9478092193603516</v>
+        <v>6.7596521377563477</v>
       </c>
       <c r="E138" s="2">
-        <v>6.9199318885803223</v>
+        <v>6.7188282012939453</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
         <v>45444</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="B139" s="2">
+        <v>6.3152675628662109</v>
+      </c>
+      <c r="C139" s="2">
+        <v>6.1936869621276855</v>
+      </c>
+      <c r="D139" s="2">
+        <v>6.6521458625793457</v>
+      </c>
+      <c r="E139" s="2">
+        <v>6.6158695220947266</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
         <v>45474</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="B140" s="2">
+        <v>6.2632513046264648</v>
+      </c>
+      <c r="C140" s="2">
+        <v>6.2459797859191895</v>
+      </c>
+      <c r="D140" s="2">
+        <v>6.5900897979736328</v>
+      </c>
+      <c r="E140" s="2">
+        <v>6.5234160423278809</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
@@ -2468,6 +2484,24 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>